--- a/capiq_data/in_process_data/IQ384687.xlsx
+++ b/capiq_data/in_process_data/IQ384687.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C700C0-8B1D-4377-8C2B-161186DF5643}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D1CA1F-5E96-40DF-AA1D-6FF7D6B2D89E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"12ba95d9-70c7-40b9-b0c0-d89415497495"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"441a296a-7f65-4768-9d5e-01cb70d0d7a5"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$69</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$69</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$69</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$69</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$69</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$69</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$69</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$69</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$69</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$69</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$69</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$69</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$69</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$69</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$69</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$69</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$69</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$69</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$69</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$69</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$69</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$69</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$69</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$69</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$69</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$69</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,87 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +720,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +814,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>38077</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>-124.39700000000001</v>
+        <v>-6.0015000000000001</v>
       </c>
       <c r="D2">
-        <v>1237.846</v>
+        <v>635.85249999999996</v>
       </c>
       <c r="E2">
-        <v>329.947</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>362.24299999999999</v>
+        <v>32.413499999999999</v>
       </c>
       <c r="G2">
-        <v>1603.4970000000001</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>5195.5600000000004</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>539.17700000000002</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1677.7139999999999</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +853,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1474.221</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>3586.3510000000001</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1731.864</v>
+        <v>617.83799999999997</v>
       </c>
       <c r="Q2">
-        <v>37.142000000000003</v>
+        <v>45.152500000000003</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>38077</v>
       </c>
       <c r="S2">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>1609.2090000000001</v>
+        <v>192.006</v>
       </c>
       <c r="U2">
-        <v>892.75800000000004</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>144.81200000000001</v>
+        <v>105.05800000000001</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-18.303000000000001</v>
+        <v>-34.013500000000001</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-2.839</v>
+        <v>-0.39050000000000001</v>
       </c>
       <c r="AA2">
-        <v>-124.39700000000001</v>
+        <v>-6.0015000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>38168</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>-48.46</v>
+        <v>-6.0015000000000001</v>
       </c>
       <c r="D3">
-        <v>849.40899999999999</v>
+        <v>635.85249999999996</v>
       </c>
       <c r="E3">
-        <v>385.988</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>302.28500000000003</v>
+        <v>32.413499999999999</v>
       </c>
       <c r="G3">
-        <v>1847.5940000000001</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>5475.2520000000004</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>629.18700000000001</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1678.0239999999999</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +933,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-5.5670000000000002</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1825.877</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>3851.953</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1734.0309999999999</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>94.427999999999997</v>
+        <v>45.152500000000003</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>38168</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1623.299</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>987.18600000000004</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>127.768</v>
+        <v>105.05800000000001</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-45.37</v>
+        <v>-34.013500000000001</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-0.14599999999999999</v>
+        <v>-0.39050000000000001</v>
       </c>
       <c r="AA3">
-        <v>-48.46</v>
+        <v>-6.0015000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>38260</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>13.257</v>
+        <v>63.091999999999999</v>
       </c>
       <c r="D4">
-        <v>1558.8820000000001</v>
+        <v>990.17399999999998</v>
       </c>
       <c r="E4">
-        <v>487.84300000000002</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>420.73099999999999</v>
+        <v>89.266999999999996</v>
       </c>
       <c r="G4">
-        <v>2035.491</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>5652.2280000000001</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>625.01400000000001</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1675.2940000000001</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1019,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1937.6189999999999</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>3963.116</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1735.442</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>16.774000000000001</v>
+        <v>-15.596</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>38260</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1689.1120000000001</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1003.96</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>4.8970000000000002</v>
+        <v>-121.559</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>35.301000000000002</v>
+        <v>112.358</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>1.7010000000000001</v>
+        <v>1.4239999999999999</v>
       </c>
       <c r="AA4">
-        <v>13.257</v>
+        <v>63.091999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>38352</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>51.712000000000003</v>
+        <v>-34.829000000000001</v>
       </c>
       <c r="D5">
-        <v>1790.0250000000001</v>
+        <v>544.24900000000002</v>
       </c>
       <c r="E5">
-        <v>489.23599999999999</v>
+        <v>167.86799999999999</v>
       </c>
       <c r="F5">
-        <v>503.721</v>
+        <v>14.241</v>
       </c>
       <c r="G5">
-        <v>1636.8009999999999</v>
+        <v>472.55700000000002</v>
       </c>
       <c r="H5">
-        <v>5168.701</v>
+        <v>1478.7059999999999</v>
       </c>
       <c r="I5">
-        <v>521.61900000000003</v>
+        <v>31.44</v>
       </c>
       <c r="J5">
-        <v>1667.9390000000001</v>
+        <v>649.46100000000001</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1102,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1438.0640000000001</v>
+        <v>579.34500000000003</v>
       </c>
       <c r="O5">
-        <v>3445.924</v>
+        <v>1317.8030000000001</v>
       </c>
       <c r="P5">
-        <v>1727.47</v>
+        <v>650.67499999999995</v>
       </c>
       <c r="Q5">
-        <v>-221.387</v>
+        <v>-11.932</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>38352</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1722.777</v>
+        <v>160.90299999999999</v>
       </c>
       <c r="U5">
-        <v>782.57299999999998</v>
+        <v>179.137</v>
       </c>
       <c r="V5">
-        <v>-160.20599999999999</v>
+        <v>31.341000000000001</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-9.1389999999999993</v>
+        <v>-21.077000000000002</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.81200000000000006</v>
+        <v>-2.056</v>
       </c>
       <c r="AA5">
-        <v>51.712000000000003</v>
+        <v>-34.829000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>38442</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>-99.525000000000006</v>
+        <v>-22.727</v>
       </c>
       <c r="D6">
-        <v>1185.682</v>
+        <v>444.483</v>
       </c>
       <c r="E6">
-        <v>389.346</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>367.77300000000002</v>
+        <v>129.84899999999999</v>
       </c>
       <c r="G6">
-        <v>1576.79</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>5077.3440000000001</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>87.626999999999995</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1652.6289999999999</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1101,81 +1182,81 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>-0.28699999999999998</v>
       </c>
       <c r="N6">
-        <v>1492.5530000000001</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>3452.1729999999998</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1708.298</v>
+        <v>650.67499999999995</v>
       </c>
       <c r="Q6">
-        <v>61.68</v>
+        <v>42.588000000000001</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>38442</v>
       </c>
       <c r="S6">
-        <v>6600</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>1625.171</v>
+        <v>160.90299999999999</v>
       </c>
       <c r="U6">
-        <v>844.25300000000004</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>163.24600000000001</v>
+        <v>23.457999999999998</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>-25.170999999999999</v>
+        <v>37.049999999999997</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-8.8640000000000008</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="AA6">
-        <v>-99.525000000000006</v>
+        <v>-22.727</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>38533</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>-69.150000000000006</v>
+        <v>0.97</v>
       </c>
       <c r="D7">
-        <v>867.99699999999996</v>
+        <v>741.69100000000003</v>
       </c>
       <c r="E7">
-        <v>421.91899999999998</v>
+        <v>236.21899999999999</v>
       </c>
       <c r="F7">
-        <v>329.28300000000002</v>
+        <v>158.37299999999999</v>
       </c>
       <c r="G7">
-        <v>2032.809</v>
+        <v>886.12699999999995</v>
       </c>
       <c r="H7">
-        <v>5549.7389999999996</v>
+        <v>1894.8389999999999</v>
       </c>
       <c r="I7">
-        <v>678.19500000000005</v>
+        <v>68.021000000000001</v>
       </c>
       <c r="J7">
-        <v>1662.1669999999999</v>
+        <v>659.64499999999998</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1265,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-36.844000000000001</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>2012.7529999999999</v>
+        <v>1009.741</v>
       </c>
       <c r="O7">
-        <v>3965.4209999999998</v>
+        <v>1753.829</v>
       </c>
       <c r="P7">
-        <v>1713.385</v>
+        <v>660.89499999999998</v>
       </c>
       <c r="Q7">
-        <v>227.15899999999999</v>
+        <v>30.224</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>38533</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="T7">
-        <v>1584.318</v>
+        <v>141.01</v>
       </c>
       <c r="U7">
-        <v>1071.412</v>
+        <v>251.94900000000001</v>
       </c>
       <c r="V7">
-        <v>264.77199999999999</v>
+        <v>51.889000000000003</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-20.53</v>
+        <v>5.6050000000000004</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-0.32400000000000001</v>
+        <v>-0.51900000000000002</v>
       </c>
       <c r="AA7">
-        <v>-69.150000000000006</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>38625</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>7.6920000000000002</v>
+        <v>26.082999999999998</v>
       </c>
       <c r="D8">
-        <v>1550.6769999999999</v>
+        <v>998.41399999999999</v>
       </c>
       <c r="E8">
-        <v>492.48399999999998</v>
+        <v>241.93600000000001</v>
       </c>
       <c r="F8">
-        <v>443.80799999999999</v>
+        <v>217.13399999999999</v>
       </c>
       <c r="G8">
-        <v>2175.8629999999998</v>
+        <v>782.32</v>
       </c>
       <c r="H8">
-        <v>5748.4250000000002</v>
+        <v>1892.2329999999999</v>
       </c>
       <c r="I8">
-        <v>666.90899999999999</v>
+        <v>67.125</v>
       </c>
       <c r="J8">
-        <v>1682.356</v>
+        <v>745.53300000000002</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1351,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2170.636</v>
+        <v>799.77800000000002</v>
       </c>
       <c r="O8">
-        <v>4151.2449999999999</v>
+        <v>1629.71</v>
       </c>
       <c r="P8">
-        <v>1743.0809999999999</v>
+        <v>768.07899999999995</v>
       </c>
       <c r="Q8">
-        <v>-66.373000000000005</v>
+        <v>21.524999999999999</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>38625</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="T8">
-        <v>1597.18</v>
+        <v>262.52300000000002</v>
       </c>
       <c r="U8">
-        <v>1005.039</v>
+        <v>273.47399999999999</v>
       </c>
       <c r="V8">
-        <v>45.356000000000002</v>
+        <v>-92.626999999999995</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>16.792999999999999</v>
+        <v>133.55799999999999</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-1.831</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="AA8">
-        <v>7.6920000000000002</v>
+        <v>26.082999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>38717</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>57.948</v>
+        <v>-134.94499999999999</v>
       </c>
       <c r="D9">
-        <v>1963.146</v>
+        <v>752.25699999999995</v>
       </c>
       <c r="E9">
-        <v>583.322</v>
+        <v>190.20699999999999</v>
       </c>
       <c r="F9">
-        <v>505.72300000000001</v>
+        <v>121.465</v>
       </c>
       <c r="G9">
-        <v>1842.3679999999999</v>
+        <v>755.27300000000002</v>
       </c>
       <c r="H9">
-        <v>5432.2479999999996</v>
+        <v>1776.5840000000001</v>
       </c>
       <c r="I9">
-        <v>676.65700000000004</v>
+        <v>37.654000000000003</v>
       </c>
       <c r="J9">
-        <v>1685.9680000000001</v>
+        <v>341.13600000000002</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1434,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1737.98</v>
+        <v>678.71900000000005</v>
       </c>
       <c r="O9">
-        <v>3720.8910000000001</v>
+        <v>1073.5219999999999</v>
       </c>
       <c r="P9">
-        <v>1749.171</v>
+        <v>366.84100000000001</v>
       </c>
       <c r="Q9">
-        <v>-221.36799999999999</v>
+        <v>130.24199999999999</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>38717</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="T9">
-        <v>1711.357</v>
+        <v>703.06200000000001</v>
       </c>
       <c r="U9">
-        <v>783.67100000000005</v>
+        <v>403.71600000000001</v>
       </c>
       <c r="V9">
-        <v>-221.089</v>
+        <v>13.363</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>8.5459999999999994</v>
+        <v>187.05500000000001</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>5.6870000000000003</v>
+        <v>-6.2359999999999998</v>
       </c>
       <c r="AA9">
-        <v>57.948</v>
+        <v>-134.94499999999999</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>38807</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>-159.71700000000001</v>
+        <v>1.117</v>
       </c>
       <c r="D10">
-        <v>1437.2270000000001</v>
+        <v>516.56700000000001</v>
       </c>
       <c r="E10">
-        <v>415.79</v>
+        <v>196.22900000000001</v>
       </c>
       <c r="F10">
-        <v>388.95600000000002</v>
+        <v>138.73500000000001</v>
       </c>
       <c r="G10">
-        <v>1812.8119999999999</v>
+        <v>854.77200000000005</v>
       </c>
       <c r="H10">
-        <v>5290.8059999999996</v>
+        <v>1892.3019999999999</v>
       </c>
       <c r="I10">
-        <v>102.718</v>
+        <v>40.563000000000002</v>
       </c>
       <c r="J10">
-        <v>1677.9549999999999</v>
+        <v>340.363</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1433,81 +1514,81 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>-0.77900000000000003</v>
       </c>
       <c r="N10">
-        <v>1768.172</v>
+        <v>827.72299999999996</v>
       </c>
       <c r="O10">
-        <v>3740.1320000000001</v>
+        <v>1208.626</v>
       </c>
       <c r="P10">
-        <v>1742.816</v>
+        <v>366.30200000000002</v>
       </c>
       <c r="Q10">
-        <v>217.38399999999999</v>
+        <v>5.1130000000000004</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>38807</v>
       </c>
       <c r="S10">
-        <v>7100</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>1550.674</v>
+        <v>683.67600000000004</v>
       </c>
       <c r="U10">
-        <v>1001.0549999999999</v>
+        <v>408.82900000000001</v>
       </c>
       <c r="V10">
-        <v>278.05900000000003</v>
+        <v>39.305999999999997</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-24.7</v>
+        <v>-25.645</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>1.921</v>
+        <v>-2.5049999999999999</v>
       </c>
       <c r="AA10">
-        <v>-159.71700000000001</v>
+        <v>1.117</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>38898</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>-63.238999999999997</v>
+        <v>9.6820000000000004</v>
       </c>
       <c r="D11">
-        <v>923.69799999999998</v>
+        <v>768.23</v>
       </c>
       <c r="E11">
-        <v>486.173</v>
+        <v>291.50900000000001</v>
       </c>
       <c r="F11">
-        <v>346.76400000000001</v>
+        <v>163.45099999999999</v>
       </c>
       <c r="G11">
-        <v>2319.7689999999998</v>
+        <v>1267.759</v>
       </c>
       <c r="H11">
-        <v>5688.2830000000004</v>
+        <v>2353.1260000000002</v>
       </c>
       <c r="I11">
-        <v>713.20699999999999</v>
+        <v>70.995000000000005</v>
       </c>
       <c r="J11">
-        <v>1673.578</v>
+        <v>338.84</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1597,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-96.674000000000007</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>2253.1610000000001</v>
+        <v>1185.912</v>
       </c>
       <c r="O11">
-        <v>4214.2039999999997</v>
+        <v>1566.1880000000001</v>
       </c>
       <c r="P11">
-        <v>1734.9459999999999</v>
+        <v>366.88499999999999</v>
       </c>
       <c r="Q11">
-        <v>245.36</v>
+        <v>194.60300000000001</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>38898</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>1474.079</v>
+        <v>786.93799999999999</v>
       </c>
       <c r="U11">
-        <v>1246.415</v>
+        <v>603.43200000000002</v>
       </c>
       <c r="V11">
-        <v>270.45999999999998</v>
+        <v>157.02099999999999</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>13.221</v>
+        <v>18.959</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-0.19600000000000001</v>
+        <v>3.069</v>
       </c>
       <c r="AA11">
-        <v>-63.238999999999997</v>
+        <v>9.6820000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>38990</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>58.13</v>
+        <v>-9.1010000000000009</v>
       </c>
       <c r="D12">
-        <v>1679.5129999999999</v>
+        <v>1368.221</v>
       </c>
       <c r="E12">
-        <v>634.50900000000001</v>
+        <v>313.863</v>
       </c>
       <c r="F12">
-        <v>469.59500000000003</v>
+        <v>235.43299999999999</v>
       </c>
       <c r="G12">
-        <v>2687.357</v>
+        <v>1064.3969999999999</v>
       </c>
       <c r="H12">
-        <v>6082.8109999999997</v>
+        <v>2128.7669999999998</v>
       </c>
       <c r="I12">
-        <v>790.26599999999996</v>
+        <v>73.959999999999994</v>
       </c>
       <c r="J12">
-        <v>1662.0350000000001</v>
+        <v>337.733</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1683,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2516.549</v>
+        <v>961.67</v>
       </c>
       <c r="O12">
-        <v>4458.8140000000003</v>
+        <v>1341.2929999999999</v>
       </c>
       <c r="P12">
-        <v>1723.693</v>
+        <v>366.029</v>
       </c>
       <c r="Q12">
-        <v>138.845</v>
+        <v>-106.846</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>38990</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1623.9970000000001</v>
+        <v>787.47400000000005</v>
       </c>
       <c r="U12">
-        <v>1385.26</v>
+        <v>496.58600000000001</v>
       </c>
       <c r="V12">
-        <v>109.887</v>
+        <v>-95.141999999999996</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>40.79</v>
+        <v>7.9240000000000004</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-9.6000000000000002E-2</v>
+        <v>1.212</v>
       </c>
       <c r="AA12">
-        <v>58.13</v>
+        <v>-9.1010000000000009</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>39082</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>43.774000000000001</v>
+        <v>-33.14</v>
       </c>
       <c r="D13">
-        <v>2262.2359999999999</v>
+        <v>1058.6969999999999</v>
       </c>
       <c r="E13">
-        <v>578.42600000000004</v>
+        <v>250.83099999999999</v>
       </c>
       <c r="F13">
-        <v>563.505</v>
+        <v>390.33300000000003</v>
       </c>
       <c r="G13">
-        <v>2364.5500000000002</v>
+        <v>740.16800000000001</v>
       </c>
       <c r="H13">
-        <v>5775.56</v>
+        <v>2225.002</v>
       </c>
       <c r="I13">
-        <v>773.18799999999999</v>
+        <v>40.646000000000001</v>
       </c>
       <c r="J13">
-        <v>1540.7629999999999</v>
+        <v>607.42499999999995</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1766,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2233.7510000000002</v>
+        <v>773.96</v>
       </c>
       <c r="O13">
-        <v>4056.2979999999998</v>
+        <v>1470.175</v>
       </c>
       <c r="P13">
-        <v>1804.452</v>
+        <v>639.14599999999996</v>
       </c>
       <c r="Q13">
-        <v>-82.682000000000002</v>
+        <v>-182.70599999999999</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>39082</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="T13">
-        <v>1719.2619999999999</v>
+        <v>754.827</v>
       </c>
       <c r="U13">
-        <v>1302.578</v>
+        <v>313.88</v>
       </c>
       <c r="V13">
-        <v>-115.809</v>
+        <v>-83.557000000000002</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>29.689</v>
+        <v>267.05599999999998</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>5.891</v>
+        <v>1.232</v>
       </c>
       <c r="AA13">
-        <v>43.774000000000001</v>
+        <v>-33.14</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>39172</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>-82.043000000000006</v>
+        <v>-45.048999999999999</v>
       </c>
       <c r="D14">
-        <v>1613.1</v>
+        <v>520.31200000000001</v>
       </c>
       <c r="E14">
-        <v>439.15100000000001</v>
+        <v>263.73</v>
       </c>
       <c r="F14">
-        <v>418.17599999999999</v>
+        <v>147.023</v>
       </c>
       <c r="G14">
-        <v>2160.1039999999998</v>
+        <v>1006.7569999999999</v>
       </c>
       <c r="H14">
-        <v>5683.5209999999997</v>
+        <v>2536.4569999999999</v>
       </c>
       <c r="I14">
-        <v>111.32</v>
+        <v>75.498000000000005</v>
       </c>
       <c r="J14">
-        <v>1530.4839999999999</v>
+        <v>632.72199999999998</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1765,81 +1846,81 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>-51.698</v>
       </c>
       <c r="N14">
-        <v>2255.518</v>
+        <v>1096.18</v>
       </c>
       <c r="O14">
-        <v>4032.674</v>
+        <v>1844.7149999999999</v>
       </c>
       <c r="P14">
-        <v>1810.3779999999999</v>
+        <v>664.50900000000001</v>
       </c>
       <c r="Q14">
-        <v>-3.3940000000000001</v>
+        <v>80.885999999999996</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>39172</v>
       </c>
       <c r="S14">
-        <v>7400</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>1650.847</v>
+        <v>691.74199999999996</v>
       </c>
       <c r="U14">
-        <v>1299.184</v>
+        <v>394.76600000000002</v>
       </c>
       <c r="V14">
-        <v>152.934</v>
+        <v>88.302000000000007</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-50.716000000000001</v>
+        <v>22.882000000000001</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-1.3380000000000001</v>
+        <v>-16.033000000000001</v>
       </c>
       <c r="AA14">
-        <v>-82.043000000000006</v>
+        <v>-45.048999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>39263</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>-32.448</v>
+        <v>9.9220000000000006</v>
       </c>
       <c r="D15">
-        <v>1127.316</v>
+        <v>863.50699999999995</v>
       </c>
       <c r="E15">
-        <v>509.11900000000003</v>
+        <v>405.16899999999998</v>
       </c>
       <c r="F15">
-        <v>396.16500000000002</v>
+        <v>170.91499999999999</v>
       </c>
       <c r="G15">
-        <v>2711.7570000000001</v>
+        <v>1262.011</v>
       </c>
       <c r="H15">
-        <v>6260.1750000000002</v>
+        <v>2813.29</v>
       </c>
       <c r="I15">
-        <v>107.333</v>
+        <v>113.20399999999999</v>
       </c>
       <c r="J15">
-        <v>1523.6569999999999</v>
+        <v>578.024</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,81 +1929,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-6.5469999999999997</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>2836.4169999999999</v>
+        <v>1433.44</v>
       </c>
       <c r="O15">
-        <v>4625.7380000000003</v>
+        <v>2094.8690000000001</v>
       </c>
       <c r="P15">
-        <v>1807.7159999999999</v>
+        <v>609.96500000000003</v>
       </c>
       <c r="Q15">
-        <v>329.95800000000003</v>
+        <v>71.894999999999996</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>39263</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1634.4369999999999</v>
+        <v>718.42100000000005</v>
       </c>
       <c r="U15">
-        <v>1629.1420000000001</v>
+        <v>466.661</v>
       </c>
       <c r="V15">
-        <v>366.608</v>
+        <v>126.67400000000001</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-4.7519999999999998</v>
+        <v>-58.192</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-0.82299999999999995</v>
+        <v>1.7150000000000001</v>
       </c>
       <c r="AA15">
-        <v>-32.448</v>
+        <v>9.9220000000000006</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>39355</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>22.934000000000001</v>
+        <v>41.552999999999997</v>
       </c>
       <c r="D16">
-        <v>1665.7850000000001</v>
+        <v>1452.578</v>
       </c>
       <c r="E16">
-        <v>563.39400000000001</v>
+        <v>390.34899999999999</v>
       </c>
       <c r="F16">
-        <v>481.089</v>
+        <v>252.50700000000001</v>
       </c>
       <c r="G16">
-        <v>3311.346</v>
+        <v>978.37800000000004</v>
       </c>
       <c r="H16">
-        <v>6872.12</v>
+        <v>2762.7809999999999</v>
       </c>
       <c r="I16">
-        <v>150.22800000000001</v>
+        <v>84.373999999999995</v>
       </c>
       <c r="J16">
-        <v>2038.845</v>
+        <v>724.97500000000002</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2015,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2872.8180000000002</v>
+        <v>1023.492</v>
       </c>
       <c r="O16">
-        <v>5184.5150000000003</v>
+        <v>1840.52</v>
       </c>
       <c r="P16">
-        <v>2308.473</v>
+        <v>773.44</v>
       </c>
       <c r="Q16">
-        <v>412.54399999999998</v>
+        <v>-115.319</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>39355</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1687.605</v>
+        <v>922.26099999999997</v>
       </c>
       <c r="U16">
-        <v>2041.6859999999999</v>
+        <v>351.34199999999998</v>
       </c>
       <c r="V16">
-        <v>-26.302</v>
+        <v>-180.614</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>488.95100000000002</v>
+        <v>98.320999999999998</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-0.68899999999999995</v>
+        <v>23.95</v>
       </c>
       <c r="AA16">
-        <v>22.934000000000001</v>
+        <v>41.552999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>39447</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>105.163</v>
+        <v>-18.361999999999998</v>
       </c>
       <c r="D17">
-        <v>2502.0079999999998</v>
+        <v>919.07299999999998</v>
       </c>
       <c r="E17">
-        <v>607.15</v>
+        <v>264.31599999999997</v>
       </c>
       <c r="F17">
-        <v>625.48900000000003</v>
+        <v>373.01499999999999</v>
       </c>
       <c r="G17">
-        <v>2497.9349999999999</v>
+        <v>834.40800000000002</v>
       </c>
       <c r="H17">
-        <v>6047.7309999999998</v>
+        <v>2752.1030000000001</v>
       </c>
       <c r="I17">
-        <v>96.103999999999999</v>
+        <v>79.272999999999996</v>
       </c>
       <c r="J17">
-        <v>2027.2090000000001</v>
+        <v>826.26099999999997</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2098,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1991.933</v>
+        <v>905.47</v>
       </c>
       <c r="O17">
-        <v>4292.05</v>
+        <v>1823.1959999999999</v>
       </c>
       <c r="P17">
-        <v>2075.1559999999999</v>
+        <v>862.60599999999999</v>
       </c>
       <c r="Q17">
-        <v>-683.38599999999997</v>
+        <v>-12.351000000000001</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>39447</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="T17">
-        <v>1755.681</v>
+        <v>928.90700000000004</v>
       </c>
       <c r="U17">
-        <v>1358.3</v>
+        <v>338.99099999999999</v>
       </c>
       <c r="V17">
-        <v>-346.83499999999998</v>
+        <v>15.448</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-232.946</v>
+        <v>47.177</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-9.8119999999999994</v>
+        <v>4.9180000000000001</v>
       </c>
       <c r="AA17">
-        <v>105.163</v>
+        <v>-18.361999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>39538</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>-186.45599999999999</v>
+        <v>-37.241</v>
       </c>
       <c r="D18">
-        <v>1571.855</v>
+        <v>532.68899999999996</v>
       </c>
       <c r="E18">
-        <v>419.30099999999999</v>
+        <v>284.70299999999997</v>
       </c>
       <c r="F18">
-        <v>444.25200000000001</v>
+        <v>130.37799999999999</v>
       </c>
       <c r="G18">
-        <v>2267.6909999999998</v>
+        <v>1057.588</v>
       </c>
       <c r="H18">
-        <v>5968.3609999999999</v>
+        <v>2956.9690000000001</v>
       </c>
       <c r="I18">
-        <v>74.150999999999996</v>
+        <v>81.557000000000002</v>
       </c>
       <c r="J18">
-        <v>1995.9570000000001</v>
+        <v>727.77499999999998</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2097,81 +2178,81 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>-77.013999999999996</v>
       </c>
       <c r="N18">
-        <v>2010.739</v>
+        <v>1166.6489999999999</v>
       </c>
       <c r="O18">
-        <v>4315.6589999999997</v>
+        <v>2004.2249999999999</v>
       </c>
       <c r="P18">
-        <v>2043.4</v>
+        <v>764.18100000000004</v>
       </c>
       <c r="Q18">
-        <v>23.728999999999999</v>
+        <v>94.873999999999995</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>39538</v>
       </c>
       <c r="S18">
-        <v>7900</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>1652.702</v>
+        <v>952.74400000000003</v>
       </c>
       <c r="U18">
-        <v>1382.029</v>
+        <v>433.86500000000001</v>
       </c>
       <c r="V18">
-        <v>283.80200000000002</v>
+        <v>154.464</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>-10.388999999999999</v>
+        <v>-58.88</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-8.2759999999999998</v>
+        <v>2.1949999999999998</v>
       </c>
       <c r="AA18">
-        <v>-186.45599999999999</v>
+        <v>-37.241</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>39629</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>-58.279000000000003</v>
+        <v>-0.65200000000000002</v>
       </c>
       <c r="D19">
-        <v>1120.3119999999999</v>
+        <v>1129.7349999999999</v>
       </c>
       <c r="E19">
-        <v>434.54300000000001</v>
+        <v>384.29199999999997</v>
       </c>
       <c r="F19">
-        <v>399.02300000000002</v>
+        <v>238.01900000000001</v>
       </c>
       <c r="G19">
-        <v>2653.1129999999998</v>
+        <v>1273.604</v>
       </c>
       <c r="H19">
-        <v>6338.4009999999998</v>
+        <v>3359.5450000000001</v>
       </c>
       <c r="I19">
-        <v>59.762</v>
+        <v>122.813</v>
       </c>
       <c r="J19">
-        <v>1968.771</v>
+        <v>726.89800000000002</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2261,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-8.6820000000000004</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>2506.9810000000002</v>
+        <v>1521.787</v>
       </c>
       <c r="O19">
-        <v>4783.0330000000004</v>
+        <v>2387.8229999999999</v>
       </c>
       <c r="P19">
-        <v>2032.875</v>
+        <v>794.08199999999999</v>
       </c>
       <c r="Q19">
-        <v>224.62899999999999</v>
+        <v>19.503</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>39629</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>1555.3679999999999</v>
+        <v>971.72199999999998</v>
       </c>
       <c r="U19">
-        <v>1606.6579999999999</v>
+        <v>453.36799999999999</v>
       </c>
       <c r="V19">
-        <v>347.661</v>
+        <v>97.936999999999998</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>-24.315000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-3.9129999999999998</v>
+        <v>1.3540000000000001</v>
       </c>
       <c r="AA19">
-        <v>-58.279000000000003</v>
+        <v>-0.65200000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>39721</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>15.055999999999999</v>
+        <v>137.99299999999999</v>
       </c>
       <c r="D20">
-        <v>1765.777</v>
+        <v>1588.462</v>
       </c>
       <c r="E20">
-        <v>524.22699999999998</v>
+        <v>358.62099999999998</v>
       </c>
       <c r="F20">
-        <v>486.678</v>
+        <v>293.04599999999999</v>
       </c>
       <c r="G20">
-        <v>2752.748</v>
+        <v>871.10199999999998</v>
       </c>
       <c r="H20">
-        <v>6713.5159999999996</v>
+        <v>2948.4009999999998</v>
       </c>
       <c r="I20">
-        <v>86.087000000000003</v>
+        <v>93.965999999999994</v>
       </c>
       <c r="J20">
-        <v>1973.173</v>
+        <v>739.38599999999997</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2347,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2727.28</v>
+        <v>972.93499999999995</v>
       </c>
       <c r="O20">
-        <v>5023.4059999999999</v>
+        <v>1856.415</v>
       </c>
       <c r="P20">
-        <v>2030.462</v>
+        <v>799.33399999999995</v>
       </c>
       <c r="Q20">
-        <v>-80.838999999999999</v>
+        <v>-247.452</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>39721</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>1690.11</v>
+        <v>1091.9860000000001</v>
       </c>
       <c r="U20">
-        <v>1525.819</v>
+        <v>205.916</v>
       </c>
       <c r="V20">
-        <v>14.815</v>
+        <v>-323.86500000000001</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>-8.0470000000000006</v>
+        <v>10.018000000000001</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-7.11</v>
+        <v>1.1719999999999999</v>
       </c>
       <c r="AA20">
-        <v>15.055999999999999</v>
+        <v>137.99299999999999</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>39813</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>89.049000000000007</v>
+        <v>-339.512</v>
       </c>
       <c r="D21">
-        <v>2622.9169999999999</v>
+        <v>834.42</v>
       </c>
       <c r="E21">
-        <v>631.34400000000005</v>
+        <v>217.286</v>
       </c>
       <c r="F21">
-        <v>648.59500000000003</v>
+        <v>309.31900000000002</v>
       </c>
       <c r="G21">
-        <v>2296.5949999999998</v>
+        <v>639.81799999999998</v>
       </c>
       <c r="H21">
-        <v>6265.3540000000003</v>
+        <v>2476.723</v>
       </c>
       <c r="I21">
-        <v>88.215999999999994</v>
+        <v>53.563000000000002</v>
       </c>
       <c r="J21">
-        <v>1993.963</v>
+        <v>815.48299999999995</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2430,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2131.7640000000001</v>
+        <v>771.23699999999997</v>
       </c>
       <c r="O21">
-        <v>4470.4570000000003</v>
+        <v>1733.08</v>
       </c>
       <c r="P21">
-        <v>2036.0940000000001</v>
+        <v>864.12</v>
       </c>
       <c r="Q21">
-        <v>-464.43599999999998</v>
+        <v>-6.2560000000000002</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>39813</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="T21">
-        <v>1794.8969999999999</v>
+        <v>743.64300000000003</v>
       </c>
       <c r="U21">
-        <v>1061.383</v>
+        <v>199.66</v>
       </c>
       <c r="V21">
-        <v>-377.4</v>
+        <v>8.8309999999999995</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-1.0860000000000001</v>
+        <v>82.346000000000004</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-6.1070000000000002</v>
+        <v>2.298</v>
       </c>
       <c r="AA21">
-        <v>89.049000000000007</v>
+        <v>-339.512</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>39903</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>-78.334000000000003</v>
+        <v>-102.70699999999999</v>
       </c>
       <c r="D22">
-        <v>1736.7249999999999</v>
+        <v>484.91199999999998</v>
       </c>
       <c r="E22">
-        <v>452.6</v>
+        <v>214.44900000000001</v>
       </c>
       <c r="F22">
-        <v>514.96199999999999</v>
+        <v>111.852</v>
       </c>
       <c r="G22">
-        <v>2288.3150000000001</v>
+        <v>988.18499999999995</v>
       </c>
       <c r="H22">
-        <v>6156.241</v>
+        <v>2785.7660000000001</v>
       </c>
       <c r="I22">
-        <v>58.606999999999999</v>
+        <v>53.548999999999999</v>
       </c>
       <c r="J22">
-        <v>2002.663</v>
+        <v>792.11099999999999</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2429,81 +2510,81 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>-176.03700000000001</v>
       </c>
       <c r="N22">
-        <v>2101.2060000000001</v>
+        <v>1214.751</v>
       </c>
       <c r="O22">
-        <v>4445.607</v>
+        <v>2142.5509999999999</v>
       </c>
       <c r="P22">
-        <v>2045.0150000000001</v>
+        <v>840.26099999999997</v>
       </c>
       <c r="Q22">
-        <v>241.74199999999999</v>
+        <v>157.44399999999999</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>39903</v>
       </c>
       <c r="S22">
-        <v>7700</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>1710.634</v>
+        <v>643.21500000000003</v>
       </c>
       <c r="U22">
-        <v>1303.125</v>
+        <v>357.10399999999998</v>
       </c>
       <c r="V22">
-        <v>322.77800000000002</v>
+        <v>201.93700000000001</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-10.673</v>
+        <v>-26.962</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-4.8680000000000003</v>
+        <v>1.23</v>
       </c>
       <c r="AA22">
-        <v>-78.334000000000003</v>
+        <v>-102.70699999999999</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>39994</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>-44.518000000000001</v>
+        <v>-27.198</v>
       </c>
       <c r="D23">
-        <v>1207.7159999999999</v>
+        <v>1047.2159999999999</v>
       </c>
       <c r="E23">
-        <v>480.68099999999998</v>
+        <v>250.54499999999999</v>
       </c>
       <c r="F23">
-        <v>423.51299999999998</v>
+        <v>208.48500000000001</v>
       </c>
       <c r="G23">
-        <v>2966.2539999999999</v>
+        <v>1298.8430000000001</v>
       </c>
       <c r="H23">
-        <v>6927.174</v>
+        <v>3136.5839999999998</v>
       </c>
       <c r="I23">
-        <v>76.203999999999994</v>
+        <v>100.824</v>
       </c>
       <c r="J23">
-        <v>1992.8510000000001</v>
+        <v>778.99599999999998</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,81 +2593,81 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-9.7639999999999993</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>2926.2370000000001</v>
+        <v>1574.57</v>
       </c>
       <c r="O23">
-        <v>5258.4279999999999</v>
+        <v>2494.5929999999998</v>
       </c>
       <c r="P23">
-        <v>2036.8409999999999</v>
+        <v>831.46299999999997</v>
       </c>
       <c r="Q23">
-        <v>396.15600000000001</v>
+        <v>112.726</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>39994</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>1668.7460000000001</v>
+        <v>641.99099999999999</v>
       </c>
       <c r="U23">
-        <v>1699.2809999999999</v>
+        <v>469.83</v>
       </c>
       <c r="V23">
-        <v>517.39800000000002</v>
+        <v>136.78899999999999</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>-53.289000000000001</v>
+        <v>-33.588999999999999</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-5.165</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="AA23">
-        <v>-44.518000000000001</v>
+        <v>-27.198</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>40086</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>37.741</v>
+        <v>69.247</v>
       </c>
       <c r="D24">
-        <v>2179.2579999999998</v>
+        <v>1794.588</v>
       </c>
       <c r="E24">
-        <v>634.56200000000001</v>
+        <v>324.83499999999998</v>
       </c>
       <c r="F24">
-        <v>573.57000000000005</v>
+        <v>326.94099999999997</v>
       </c>
       <c r="G24">
-        <v>2969.9520000000002</v>
+        <v>954.31399999999996</v>
       </c>
       <c r="H24">
-        <v>7043.4260000000004</v>
+        <v>2696.8609999999999</v>
       </c>
       <c r="I24">
-        <v>103.72199999999999</v>
+        <v>88.293999999999997</v>
       </c>
       <c r="J24">
-        <v>1985.19</v>
+        <v>851.90599999999995</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2679,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3023.4340000000002</v>
+        <v>978.39200000000005</v>
       </c>
       <c r="O24">
-        <v>5335.1279999999997</v>
+        <v>1963.088</v>
       </c>
       <c r="P24">
-        <v>2030.1079999999999</v>
+        <v>906.11099999999999</v>
       </c>
       <c r="Q24">
-        <v>-187.18199999999999</v>
+        <v>-211.74100000000001</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>40086</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>1708.298</v>
+        <v>733.77300000000002</v>
       </c>
       <c r="U24">
-        <v>1512.0989999999999</v>
+        <v>258.089</v>
       </c>
       <c r="V24">
-        <v>-6.423</v>
+        <v>-264.14499999999998</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-15.805</v>
+        <v>62.460999999999999</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-8.343</v>
+        <v>-6.3E-2</v>
       </c>
       <c r="AA24">
-        <v>37.741</v>
+        <v>69.247</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>40178</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>111.07899999999999</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="D25">
-        <v>3170.4160000000002</v>
+        <v>854.30499999999995</v>
       </c>
       <c r="E25">
-        <v>785.41800000000001</v>
+        <v>176.179</v>
       </c>
       <c r="F25">
-        <v>742.41300000000001</v>
+        <v>178.398</v>
       </c>
       <c r="G25">
-        <v>2407.2049999999999</v>
+        <v>717.86599999999999</v>
       </c>
       <c r="H25">
-        <v>6417.0290000000005</v>
+        <v>2341.759</v>
       </c>
       <c r="I25">
-        <v>66.346999999999994</v>
+        <v>50.844000000000001</v>
       </c>
       <c r="J25">
-        <v>1984.511</v>
+        <v>745.64</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2762,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2280.9969999999998</v>
+        <v>752.23400000000004</v>
       </c>
       <c r="O25">
-        <v>4589.2079999999996</v>
+        <v>1616.318</v>
       </c>
       <c r="P25">
-        <v>2031.204</v>
+        <v>789.92700000000002</v>
       </c>
       <c r="Q25">
-        <v>-472.39299999999997</v>
+        <v>-21.134</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>40178</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="T25">
-        <v>1827.8209999999999</v>
+        <v>725.44100000000003</v>
       </c>
       <c r="U25">
-        <v>1039.7059999999999</v>
+        <v>236.95500000000001</v>
       </c>
       <c r="V25">
-        <v>-391.459</v>
+        <v>-17.306000000000001</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-40.606000000000002</v>
+        <v>-126.26600000000001</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-5.12</v>
+        <v>2.911</v>
       </c>
       <c r="AA25">
-        <v>111.07899999999999</v>
+        <v>0.47899999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>40268</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>-101.36</v>
+        <v>-122.21299999999999</v>
       </c>
       <c r="D26">
-        <v>1797.5440000000001</v>
+        <v>723.36099999999999</v>
       </c>
       <c r="E26">
-        <v>568.93600000000004</v>
+        <v>263.952</v>
       </c>
       <c r="F26">
-        <v>532.73</v>
+        <v>238.60499999999999</v>
       </c>
       <c r="G26">
-        <v>2673.5509999999999</v>
+        <v>1609.1010000000001</v>
       </c>
       <c r="H26">
-        <v>6764.2659999999996</v>
+        <v>5137.4380000000001</v>
       </c>
       <c r="I26">
-        <v>55.03</v>
+        <v>470.75700000000001</v>
       </c>
       <c r="J26">
-        <v>2259.7359999999999</v>
+        <v>1534.0419999999999</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2761,81 +2842,81 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>-193.321</v>
       </c>
       <c r="N26">
-        <v>2460.3440000000001</v>
+        <v>1566.0129999999999</v>
       </c>
       <c r="O26">
-        <v>5067.6819999999998</v>
+        <v>3483.8409999999999</v>
       </c>
       <c r="P26">
-        <v>2313.0529999999999</v>
+        <v>1575.528</v>
       </c>
       <c r="Q26">
-        <v>486.88499999999999</v>
+        <v>588.24199999999996</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>40268</v>
       </c>
       <c r="S26">
-        <v>8300</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>1696.5840000000001</v>
+        <v>1653.597</v>
       </c>
       <c r="U26">
-        <v>1526.5909999999999</v>
+        <v>825.197</v>
       </c>
       <c r="V26">
-        <v>477.97399999999999</v>
+        <v>89.501000000000005</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>208.91200000000001</v>
+        <v>-59.075000000000003</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-10.294</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="AA26">
-        <v>-101.36</v>
+        <v>-122.21299999999999</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>40359</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>-32.993000000000002</v>
+        <v>-32.786999999999999</v>
       </c>
       <c r="D27">
-        <v>1242.8789999999999</v>
+        <v>1266.7349999999999</v>
       </c>
       <c r="E27">
-        <v>584.63800000000003</v>
+        <v>365.03399999999999</v>
       </c>
       <c r="F27">
-        <v>467.61799999999999</v>
+        <v>370.452</v>
       </c>
       <c r="G27">
-        <v>3601.4490000000001</v>
+        <v>1977.3520000000001</v>
       </c>
       <c r="H27">
-        <v>7823.5169999999998</v>
+        <v>5509.8990000000003</v>
       </c>
       <c r="I27">
-        <v>68.263000000000005</v>
+        <v>504.58699999999999</v>
       </c>
       <c r="J27">
-        <v>2258.8200000000002</v>
+        <v>1694.059</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2925,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-11.775</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>3539.3310000000001</v>
+        <v>1812.3209999999999</v>
       </c>
       <c r="O27">
-        <v>6144.634</v>
+        <v>3900.8870000000002</v>
       </c>
       <c r="P27">
-        <v>2318.7629999999999</v>
+        <v>1740.5809999999999</v>
       </c>
       <c r="Q27">
-        <v>701.99900000000002</v>
+        <v>174.73099999999999</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>40359</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>1678.883</v>
+        <v>1609.0119999999999</v>
       </c>
       <c r="U27">
-        <v>2227.5549999999998</v>
+        <v>999.928</v>
       </c>
       <c r="V27">
-        <v>761.73699999999997</v>
+        <v>78.778000000000006</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>-5.0670000000000002</v>
+        <v>138.24100000000001</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-10.608000000000001</v>
+        <v>0.128</v>
       </c>
       <c r="AA27">
-        <v>-32.993000000000002</v>
+        <v>-32.786999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>40451</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>81.477999999999994</v>
+        <v>51.006999999999998</v>
       </c>
       <c r="D28">
-        <v>2683.585</v>
+        <v>1835.806</v>
       </c>
       <c r="E28">
-        <v>865.10699999999997</v>
+        <v>470.50299999999999</v>
       </c>
       <c r="F28">
-        <v>661.11400000000003</v>
+        <v>447.51100000000002</v>
       </c>
       <c r="G28">
-        <v>3984.2779999999998</v>
+        <v>1806.1489999999999</v>
       </c>
       <c r="H28">
-        <v>8251.4259999999995</v>
+        <v>5392.549</v>
       </c>
       <c r="I28">
-        <v>123.94</v>
+        <v>528.48699999999997</v>
       </c>
       <c r="J28">
-        <v>2249.1570000000002</v>
+        <v>1673.6859999999999</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3011,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>3836.6570000000002</v>
+        <v>1531.4690000000001</v>
       </c>
       <c r="O28">
-        <v>6447.3720000000003</v>
+        <v>3629.5520000000001</v>
       </c>
       <c r="P28">
-        <v>2315.587</v>
+        <v>1739.01</v>
       </c>
       <c r="Q28">
-        <v>-10.708</v>
+        <v>-144.31200000000001</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>40451</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>1804.0540000000001</v>
+        <v>1762.9970000000001</v>
       </c>
       <c r="U28">
-        <v>2216.8119999999999</v>
+        <v>855.61599999999999</v>
       </c>
       <c r="V28">
-        <v>42.972000000000001</v>
+        <v>-154.57300000000001</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>-19.097999999999999</v>
+        <v>-11.776999999999999</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-7.601</v>
+        <v>4.28</v>
       </c>
       <c r="AA28">
-        <v>81.477999999999994</v>
+        <v>51.006999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>40543</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>136.393</v>
+        <v>-124.39700000000001</v>
       </c>
       <c r="D29">
-        <v>3440.308</v>
+        <v>1237.846</v>
       </c>
       <c r="E29">
-        <v>991.21500000000003</v>
+        <v>329.947</v>
       </c>
       <c r="F29">
-        <v>806.36800000000005</v>
+        <v>362.24299999999999</v>
       </c>
       <c r="G29">
-        <v>3563.6289999999999</v>
+        <v>1603.4970000000001</v>
       </c>
       <c r="H29">
-        <v>7810.5240000000003</v>
+        <v>5195.5600000000004</v>
       </c>
       <c r="I29">
-        <v>93.043000000000006</v>
+        <v>539.17700000000002</v>
       </c>
       <c r="J29">
-        <v>2240.4609999999998</v>
+        <v>1677.7139999999999</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3094,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>3212.877</v>
+        <v>1474.221</v>
       </c>
       <c r="O29">
-        <v>5825.7049999999999</v>
+        <v>3586.3510000000001</v>
       </c>
       <c r="P29">
-        <v>2312.1350000000002</v>
+        <v>1731.864</v>
       </c>
       <c r="Q29">
-        <v>-415.89699999999999</v>
+        <v>37.142000000000003</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>40543</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="T29">
-        <v>1984.819</v>
+        <v>1609.2090000000001</v>
       </c>
       <c r="U29">
-        <v>1801.0129999999999</v>
+        <v>892.75800000000004</v>
       </c>
       <c r="V29">
-        <v>-386.47500000000002</v>
+        <v>144.81200000000001</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>-1.498</v>
+        <v>-18.303000000000001</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-3.948</v>
+        <v>-2.839</v>
       </c>
       <c r="AA29">
-        <v>136.393</v>
+        <v>-124.39700000000001</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>40633</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-190.893</v>
+        <v>-48.46</v>
       </c>
       <c r="D30">
-        <v>2320.4499999999998</v>
+        <v>849.40899999999999</v>
       </c>
       <c r="E30">
-        <v>725.30399999999997</v>
+        <v>385.988</v>
       </c>
       <c r="F30">
-        <v>570.22400000000005</v>
+        <v>302.28500000000003</v>
       </c>
       <c r="G30">
-        <v>3152.7420000000002</v>
+        <v>1847.5940000000001</v>
       </c>
       <c r="H30">
-        <v>7504.2629999999999</v>
+        <v>5475.2520000000004</v>
       </c>
       <c r="I30">
-        <v>85.665999999999997</v>
+        <v>629.18700000000001</v>
       </c>
       <c r="J30">
-        <v>1952.366</v>
+        <v>1678.0239999999999</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3093,81 +3174,81 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>-5.5670000000000002</v>
       </c>
       <c r="N30">
-        <v>3577</v>
+        <v>1825.877</v>
       </c>
       <c r="O30">
-        <v>5841.3919999999998</v>
+        <v>3851.953</v>
       </c>
       <c r="P30">
-        <v>2299.9589999999998</v>
+        <v>1734.0309999999999</v>
       </c>
       <c r="Q30">
-        <v>23.853000000000002</v>
+        <v>94.427999999999997</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>40633</v>
       </c>
       <c r="S30">
-        <v>8800</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>1662.8710000000001</v>
+        <v>1623.299</v>
       </c>
       <c r="U30">
-        <v>1825.3219999999999</v>
+        <v>987.18600000000004</v>
       </c>
       <c r="V30">
-        <v>205.28800000000001</v>
+        <v>127.768</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>-101.42</v>
+        <v>-45.37</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-3.0129999999999999</v>
+        <v>-0.14599999999999999</v>
       </c>
       <c r="AA30">
-        <v>-190.893</v>
+        <v>-48.46</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>40724</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>-33.905999999999999</v>
+        <v>13.257</v>
       </c>
       <c r="D31">
-        <v>1482.384</v>
+        <v>1558.8820000000001</v>
       </c>
       <c r="E31">
-        <v>783.80700000000002</v>
+        <v>487.84300000000002</v>
       </c>
       <c r="F31">
-        <v>550.29999999999995</v>
+        <v>420.73099999999999</v>
       </c>
       <c r="G31">
-        <v>4644.6899999999996</v>
+        <v>2035.491</v>
       </c>
       <c r="H31">
-        <v>9117.5480000000007</v>
+        <v>5652.2280000000001</v>
       </c>
       <c r="I31">
-        <v>79.411000000000001</v>
+        <v>625.01400000000001</v>
       </c>
       <c r="J31">
-        <v>2747.3989999999999</v>
+        <v>1675.2940000000001</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3257,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-321.85000000000002</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>4438.7129999999997</v>
+        <v>1937.6189999999999</v>
       </c>
       <c r="O31">
-        <v>7480.6270000000004</v>
+        <v>3963.116</v>
       </c>
       <c r="P31">
-        <v>2866.8130000000001</v>
+        <v>1735.442</v>
       </c>
       <c r="Q31">
-        <v>1119.961</v>
+        <v>16.774000000000001</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>40724</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>1636.921</v>
+        <v>1689.1120000000001</v>
       </c>
       <c r="U31">
-        <v>2942.4070000000002</v>
+        <v>1003.96</v>
       </c>
       <c r="V31">
-        <v>775.49800000000005</v>
+        <v>4.8970000000000002</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>404.15</v>
+        <v>35.301000000000002</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>1.7010000000000001</v>
       </c>
       <c r="AA31">
-        <v>-33.905999999999999</v>
+        <v>13.257</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>40816</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>69.358999999999995</v>
+        <v>51.712000000000003</v>
       </c>
       <c r="D32">
-        <v>2868.3150000000001</v>
+        <v>1790.0250000000001</v>
       </c>
       <c r="E32">
-        <v>949.42200000000003</v>
+        <v>489.23599999999999</v>
       </c>
       <c r="F32">
-        <v>733.20799999999997</v>
+        <v>503.721</v>
       </c>
       <c r="G32">
-        <v>4263.3559999999998</v>
+        <v>1636.8009999999999</v>
       </c>
       <c r="H32">
-        <v>8952.8089999999993</v>
+        <v>5168.701</v>
       </c>
       <c r="I32">
-        <v>134.19499999999999</v>
+        <v>521.61900000000003</v>
       </c>
       <c r="J32">
-        <v>2743.1039999999998</v>
+        <v>1667.9390000000001</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3343,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>4206.7510000000002</v>
+        <v>1438.0640000000001</v>
       </c>
       <c r="O32">
-        <v>7254.0950000000003</v>
+        <v>3445.924</v>
       </c>
       <c r="P32">
-        <v>2828.05</v>
+        <v>1727.47</v>
       </c>
       <c r="Q32">
-        <v>-648.47</v>
+        <v>-221.387</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>40816</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>1698.7139999999999</v>
+        <v>1722.777</v>
       </c>
       <c r="U32">
-        <v>2293.2640000000001</v>
+        <v>782.57299999999998</v>
       </c>
       <c r="V32">
-        <v>-255.672</v>
+        <v>-160.20599999999999</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>-89.418999999999997</v>
+        <v>-9.1389999999999993</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-38.201000000000001</v>
+        <v>0.81200000000000006</v>
       </c>
       <c r="AA32">
-        <v>69.358999999999995</v>
+        <v>51.712000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>40908</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>172.68299999999999</v>
+        <v>-99.525000000000006</v>
       </c>
       <c r="D33">
-        <v>3835.2460000000001</v>
+        <v>1185.682</v>
       </c>
       <c r="E33">
-        <v>1252.585</v>
+        <v>389.346</v>
       </c>
       <c r="F33">
-        <v>910.89</v>
+        <v>367.77300000000002</v>
       </c>
       <c r="G33">
-        <v>3881.047</v>
+        <v>1576.79</v>
       </c>
       <c r="H33">
-        <v>8511.6990000000005</v>
+        <v>5077.3440000000001</v>
       </c>
       <c r="I33">
-        <v>112.036</v>
+        <v>87.626999999999995</v>
       </c>
       <c r="J33">
-        <v>2731.9850000000001</v>
+        <v>1652.6289999999999</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3426,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>3608.7979999999998</v>
+        <v>1492.5530000000001</v>
       </c>
       <c r="O33">
-        <v>6652.32</v>
+        <v>3452.1729999999998</v>
       </c>
       <c r="P33">
-        <v>2813.817</v>
+        <v>1708.298</v>
       </c>
       <c r="Q33">
-        <v>-390.51499999999999</v>
+        <v>61.68</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>40908</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="T33">
-        <v>1859.3789999999999</v>
+        <v>1625.171</v>
       </c>
       <c r="U33">
-        <v>1900.3050000000001</v>
+        <v>844.25300000000004</v>
       </c>
       <c r="V33">
-        <v>-264.25</v>
+        <v>163.24600000000001</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>-46.604999999999997</v>
+        <v>-25.170999999999999</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-4.3789999999999996</v>
+        <v>-8.8640000000000008</v>
       </c>
       <c r="AA33">
-        <v>172.68299999999999</v>
+        <v>-99.525000000000006</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>40999</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>-147.887</v>
+        <v>-69.150000000000006</v>
       </c>
       <c r="D34">
-        <v>2601.855</v>
+        <v>867.99699999999996</v>
       </c>
       <c r="E34">
-        <v>829.32</v>
+        <v>421.91899999999998</v>
       </c>
       <c r="F34">
-        <v>625.47</v>
+        <v>329.28300000000002</v>
       </c>
       <c r="G34">
-        <v>3848.0740000000001</v>
+        <v>2032.809</v>
       </c>
       <c r="H34">
-        <v>8496.8860000000004</v>
+        <v>5549.7389999999996</v>
       </c>
       <c r="I34">
-        <v>90.253</v>
+        <v>678.19500000000005</v>
       </c>
       <c r="J34">
-        <v>2732.8780000000002</v>
+        <v>1662.1669999999999</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3425,81 +3506,81 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>-36.844000000000001</v>
       </c>
       <c r="N34">
-        <v>3749.866</v>
+        <v>2012.7529999999999</v>
       </c>
       <c r="O34">
-        <v>6824.7879999999996</v>
+        <v>3965.4209999999998</v>
       </c>
       <c r="P34">
-        <v>2815.02</v>
+        <v>1713.385</v>
       </c>
       <c r="Q34">
-        <v>468.40499999999997</v>
+        <v>227.15899999999999</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>40999</v>
       </c>
       <c r="S34">
-        <v>9500</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>1672.098</v>
+        <v>1584.318</v>
       </c>
       <c r="U34">
-        <v>2371.54</v>
+        <v>1071.412</v>
       </c>
       <c r="V34">
-        <v>686.01</v>
+        <v>264.77199999999999</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-79.341999999999999</v>
+        <v>-20.53</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-3.9169999999999998</v>
+        <v>-0.32400000000000001</v>
       </c>
       <c r="AA34">
-        <v>-147.887</v>
+        <v>-69.150000000000006</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>41090</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>-52.444000000000003</v>
+        <v>7.6920000000000002</v>
       </c>
       <c r="D35">
-        <v>1727.828</v>
+        <v>1550.6769999999999</v>
       </c>
       <c r="E35">
-        <v>920.03499999999997</v>
+        <v>492.48399999999998</v>
       </c>
       <c r="F35">
-        <v>576.22400000000005</v>
+        <v>443.80799999999999</v>
       </c>
       <c r="G35">
-        <v>4424.8739999999998</v>
+        <v>2175.8629999999998</v>
       </c>
       <c r="H35">
-        <v>10302.532999999999</v>
+        <v>5748.4250000000002</v>
       </c>
       <c r="I35">
-        <v>103.56699999999999</v>
+        <v>666.90899999999999</v>
       </c>
       <c r="J35">
-        <v>2715.9659999999999</v>
+        <v>1682.356</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3589,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-13.573</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>4688.8819999999996</v>
+        <v>2170.636</v>
       </c>
       <c r="O35">
-        <v>8719.11</v>
+        <v>4151.2449999999999</v>
       </c>
       <c r="P35">
-        <v>3981.0590000000002</v>
+        <v>1743.0809999999999</v>
       </c>
       <c r="Q35">
-        <v>305.98899999999998</v>
+        <v>-66.373000000000005</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>41090</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>1583.423</v>
+        <v>1597.18</v>
       </c>
       <c r="U35">
-        <v>2670.538</v>
+        <v>1005.039</v>
       </c>
       <c r="V35">
-        <v>469.05</v>
+        <v>45.356000000000002</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-71.491</v>
+        <v>16.792999999999999</v>
       </c>
       <c r="Y35">
-        <v>1071.375</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>-1.831</v>
       </c>
       <c r="AA35">
-        <v>-52.444000000000003</v>
+        <v>7.6920000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>41182</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>103.355</v>
+        <v>57.948</v>
       </c>
       <c r="D36">
-        <v>3157.009</v>
+        <v>1963.146</v>
       </c>
       <c r="E36">
-        <v>1096.7539999999999</v>
+        <v>583.322</v>
       </c>
       <c r="F36">
-        <v>829.59500000000003</v>
+        <v>505.72300000000001</v>
       </c>
       <c r="G36">
-        <v>4284.8869999999997</v>
+        <v>1842.3679999999999</v>
       </c>
       <c r="H36">
-        <v>10529.387000000001</v>
+        <v>5432.2479999999996</v>
       </c>
       <c r="I36">
-        <v>170.274</v>
+        <v>676.65700000000004</v>
       </c>
       <c r="J36">
-        <v>2708.6419999999998</v>
+        <v>1685.9680000000001</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3675,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>4605.723</v>
+        <v>1737.98</v>
       </c>
       <c r="O36">
-        <v>8736.3029999999999</v>
+        <v>3720.8910000000001</v>
       </c>
       <c r="P36">
-        <v>4023.009</v>
+        <v>1749.171</v>
       </c>
       <c r="Q36">
-        <v>-399.21300000000002</v>
+        <v>-221.36799999999999</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>41182</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>1793.0840000000001</v>
+        <v>1711.357</v>
       </c>
       <c r="U36">
-        <v>2270.3409999999999</v>
+        <v>783.67100000000005</v>
       </c>
       <c r="V36">
-        <v>-175.727</v>
+        <v>-221.089</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>-26.419</v>
+        <v>8.5459999999999994</v>
       </c>
       <c r="Y36">
-        <v>1138.893</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-28.931000000000001</v>
+        <v>5.6870000000000003</v>
       </c>
       <c r="AA36">
-        <v>103.355</v>
+        <v>57.948</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>41274</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>178.92500000000001</v>
+        <v>-159.71700000000001</v>
       </c>
       <c r="D37">
-        <v>3773.6840000000002</v>
+        <v>1437.2270000000001</v>
       </c>
       <c r="E37">
-        <v>1215.4649999999999</v>
+        <v>415.79</v>
       </c>
       <c r="F37">
-        <v>973.255</v>
+        <v>388.95600000000002</v>
       </c>
       <c r="G37">
-        <v>3849.723</v>
+        <v>1812.8119999999999</v>
       </c>
       <c r="H37">
-        <v>9967.1329999999998</v>
+        <v>5290.8059999999996</v>
       </c>
       <c r="I37">
-        <v>119.91</v>
+        <v>102.718</v>
       </c>
       <c r="J37">
-        <v>2694.9340000000002</v>
+        <v>1677.9549999999999</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3758,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>3959.3719999999998</v>
+        <v>1768.172</v>
       </c>
       <c r="O37">
-        <v>8025.4849999999997</v>
+        <v>3740.1320000000001</v>
       </c>
       <c r="P37">
-        <v>3974.0450000000001</v>
+        <v>1742.816</v>
       </c>
       <c r="Q37">
-        <v>-476.185</v>
+        <v>217.38399999999999</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>41274</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>7100</v>
       </c>
       <c r="T37">
-        <v>1941.6479999999999</v>
+        <v>1550.674</v>
       </c>
       <c r="U37">
-        <v>1795.1659999999999</v>
+        <v>1001.0549999999999</v>
       </c>
       <c r="V37">
-        <v>-260.40100000000001</v>
+        <v>278.05900000000003</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-41.7</v>
+        <v>-24.7</v>
       </c>
       <c r="Y37">
-        <v>1092.538</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-5.8109999999999999</v>
+        <v>1.921</v>
       </c>
       <c r="AA37">
-        <v>178.92500000000001</v>
+        <v>-159.71700000000001</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>41364</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>-159.947</v>
+        <v>-63.238999999999997</v>
       </c>
       <c r="D38">
-        <v>2889.4479999999999</v>
+        <v>923.69799999999998</v>
       </c>
       <c r="E38">
-        <v>994.60599999999999</v>
+        <v>486.173</v>
       </c>
       <c r="F38">
-        <v>701.71299999999997</v>
+        <v>346.76400000000001</v>
       </c>
       <c r="G38">
-        <v>4192.8990000000003</v>
+        <v>2319.7689999999998</v>
       </c>
       <c r="H38">
-        <v>10975.615</v>
+        <v>5688.2830000000004</v>
       </c>
       <c r="I38">
-        <v>100.23699999999999</v>
+        <v>713.20699999999999</v>
       </c>
       <c r="J38">
-        <v>3266.0619999999999</v>
+        <v>1673.578</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3757,81 +3838,81 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>-96.674000000000007</v>
       </c>
       <c r="N38">
-        <v>4107.5990000000002</v>
+        <v>2253.1610000000001</v>
       </c>
       <c r="O38">
-        <v>9062.1630000000005</v>
+        <v>4214.2039999999997</v>
       </c>
       <c r="P38">
-        <v>4805.4880000000003</v>
+        <v>1734.9459999999999</v>
       </c>
       <c r="Q38">
-        <v>665.44799999999998</v>
+        <v>245.36</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>41364</v>
       </c>
       <c r="S38">
-        <v>10500</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>1913.452</v>
+        <v>1474.079</v>
       </c>
       <c r="U38">
-        <v>2470.3620000000001</v>
+        <v>1246.415</v>
       </c>
       <c r="V38">
-        <v>436.86099999999999</v>
+        <v>270.45999999999998</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>468.49900000000002</v>
+        <v>13.221</v>
       </c>
       <c r="Y38">
-        <v>1379.681</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-22.538</v>
+        <v>-0.19600000000000001</v>
       </c>
       <c r="AA38">
-        <v>-159.947</v>
+        <v>-63.238999999999997</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>41455</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>-184.78399999999999</v>
+        <v>58.13</v>
       </c>
       <c r="D39">
-        <v>1365.693</v>
+        <v>1679.5129999999999</v>
       </c>
       <c r="E39">
-        <v>759.43200000000002</v>
+        <v>634.50900000000001</v>
       </c>
       <c r="F39">
-        <v>491.87299999999999</v>
+        <v>469.59500000000003</v>
       </c>
       <c r="G39">
-        <v>4851.0249999999996</v>
+        <v>2687.357</v>
       </c>
       <c r="H39">
-        <v>11861.444</v>
+        <v>6082.8109999999997</v>
       </c>
       <c r="I39">
-        <v>87.84</v>
+        <v>790.26599999999996</v>
       </c>
       <c r="J39">
-        <v>3681.85</v>
+        <v>1662.0350000000001</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3921,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-6.032</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>4730.0559999999996</v>
+        <v>2516.549</v>
       </c>
       <c r="O39">
-        <v>10187.005999999999</v>
+        <v>4458.8140000000003</v>
       </c>
       <c r="P39">
-        <v>5220.0609999999997</v>
+        <v>1723.693</v>
       </c>
       <c r="Q39">
-        <v>807.46900000000005</v>
+        <v>138.845</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>41455</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>1674.4380000000001</v>
+        <v>1623.9970000000001</v>
       </c>
       <c r="U39">
-        <v>3269.8629999999998</v>
+        <v>1385.26</v>
       </c>
       <c r="V39">
-        <v>631.67499999999995</v>
+        <v>109.887</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>382.42200000000003</v>
+        <v>40.79</v>
       </c>
       <c r="Y39">
-        <v>1380.192</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>-9.6000000000000002E-2</v>
       </c>
       <c r="AA39">
-        <v>-184.78399999999999</v>
+        <v>58.13</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>41547</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>-567.51700000000005</v>
+        <v>43.774000000000001</v>
       </c>
       <c r="D40">
-        <v>74.084000000000003</v>
+        <v>2262.2359999999999</v>
       </c>
       <c r="E40">
-        <v>618.58000000000004</v>
+        <v>578.42600000000004</v>
       </c>
       <c r="F40">
-        <v>-120.473</v>
+        <v>563.505</v>
       </c>
       <c r="G40">
-        <v>4433.1940000000004</v>
+        <v>2364.5500000000002</v>
       </c>
       <c r="H40">
-        <v>11622.3</v>
+        <v>5775.56</v>
       </c>
       <c r="I40">
-        <v>124.806</v>
+        <v>773.18799999999999</v>
       </c>
       <c r="J40">
-        <v>4866.3310000000001</v>
+        <v>1540.7629999999999</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4007,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>3492.2959999999998</v>
+        <v>2233.7510000000002</v>
       </c>
       <c r="O40">
-        <v>10604.541999999999</v>
+        <v>4056.2979999999998</v>
       </c>
       <c r="P40">
-        <v>6461.8789999999999</v>
+        <v>1804.452</v>
       </c>
       <c r="Q40">
-        <v>18.654</v>
+        <v>-82.682000000000002</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>41547</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>1017.758</v>
+        <v>1719.2619999999999</v>
       </c>
       <c r="U40">
-        <v>3290.0520000000001</v>
+        <v>1302.578</v>
       </c>
       <c r="V40">
-        <v>-1022.035</v>
+        <v>-115.809</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>1079.6759999999999</v>
+        <v>29.689</v>
       </c>
       <c r="Y40">
-        <v>1412.19</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-8.15</v>
+        <v>5.891</v>
       </c>
       <c r="AA40">
-        <v>-567.51700000000005</v>
+        <v>43.774000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>41639</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>-528.90200000000004</v>
+        <v>-82.043000000000006</v>
       </c>
       <c r="D41">
-        <v>184.018</v>
+        <v>1613.1</v>
       </c>
       <c r="E41">
-        <v>564.87300000000005</v>
+        <v>439.15100000000001</v>
       </c>
       <c r="F41">
-        <v>53.268999999999998</v>
+        <v>418.17599999999999</v>
       </c>
       <c r="G41">
-        <v>3859.857</v>
+        <v>2160.1039999999998</v>
       </c>
       <c r="H41">
-        <v>10885.431</v>
+        <v>5683.5209999999997</v>
       </c>
       <c r="I41">
-        <v>88.869</v>
+        <v>111.32</v>
       </c>
       <c r="J41">
-        <v>4884.9120000000003</v>
+        <v>1530.4839999999999</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4090,2369 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>3582.877</v>
+        <v>2255.518</v>
       </c>
       <c r="O41">
-        <v>10351.42</v>
+        <v>4032.674</v>
       </c>
       <c r="P41">
-        <v>6518.5420000000004</v>
+        <v>1810.3779999999999</v>
       </c>
       <c r="Q41">
-        <v>-666.87400000000002</v>
+        <v>-3.3940000000000001</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>41639</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>7400</v>
       </c>
       <c r="T41">
-        <v>534.01099999999997</v>
+        <v>1650.847</v>
       </c>
       <c r="U41">
-        <v>2625.0819999999999</v>
+        <v>1299.184</v>
       </c>
       <c r="V41">
-        <v>-566.54300000000001</v>
+        <v>152.934</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>-100.462</v>
+        <v>-50.716000000000001</v>
       </c>
       <c r="Y41">
-        <v>1467.105</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-1.5780000000000001</v>
+        <v>-1.3380000000000001</v>
       </c>
       <c r="AA41">
-        <v>-528.90200000000004</v>
+        <v>-82.043000000000006</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>41729</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>-32.448</v>
+      </c>
+      <c r="D42">
+        <v>1127.316</v>
+      </c>
+      <c r="E42">
+        <v>509.11900000000003</v>
+      </c>
+      <c r="F42">
+        <v>396.16500000000002</v>
+      </c>
+      <c r="G42">
+        <v>2711.7570000000001</v>
+      </c>
+      <c r="H42">
+        <v>6260.1750000000002</v>
+      </c>
+      <c r="I42">
+        <v>107.333</v>
+      </c>
+      <c r="J42">
+        <v>1523.6569999999999</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>-6.5469999999999997</v>
+      </c>
+      <c r="N42">
+        <v>2836.4169999999999</v>
+      </c>
+      <c r="O42">
+        <v>4625.7380000000003</v>
+      </c>
+      <c r="P42">
+        <v>1807.7159999999999</v>
+      </c>
+      <c r="Q42">
+        <v>329.95800000000003</v>
+      </c>
+      <c r="R42">
+        <v>41729</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>1634.4369999999999</v>
+      </c>
+      <c r="U42">
+        <v>1629.1420000000001</v>
+      </c>
+      <c r="V42">
+        <v>366.608</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-4.7519999999999998</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-0.82299999999999995</v>
+      </c>
+      <c r="AA42">
+        <v>-32.448</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>22.934000000000001</v>
+      </c>
+      <c r="D43">
+        <v>1665.7850000000001</v>
+      </c>
+      <c r="E43">
+        <v>563.39400000000001</v>
+      </c>
+      <c r="F43">
+        <v>481.089</v>
+      </c>
+      <c r="G43">
+        <v>3311.346</v>
+      </c>
+      <c r="H43">
+        <v>6872.12</v>
+      </c>
+      <c r="I43">
+        <v>150.22800000000001</v>
+      </c>
+      <c r="J43">
+        <v>2038.845</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>2872.8180000000002</v>
+      </c>
+      <c r="O43">
+        <v>5184.5150000000003</v>
+      </c>
+      <c r="P43">
+        <v>2308.473</v>
+      </c>
+      <c r="Q43">
+        <v>412.54399999999998</v>
+      </c>
+      <c r="R43">
+        <v>41820</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1687.605</v>
+      </c>
+      <c r="U43">
+        <v>2041.6859999999999</v>
+      </c>
+      <c r="V43">
+        <v>-26.302</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>488.95100000000002</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-0.68899999999999995</v>
+      </c>
+      <c r="AA43">
+        <v>22.934000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>105.163</v>
+      </c>
+      <c r="D44">
+        <v>2502.0079999999998</v>
+      </c>
+      <c r="E44">
+        <v>607.15</v>
+      </c>
+      <c r="F44">
+        <v>625.48900000000003</v>
+      </c>
+      <c r="G44">
+        <v>2497.9349999999999</v>
+      </c>
+      <c r="H44">
+        <v>6047.7309999999998</v>
+      </c>
+      <c r="I44">
+        <v>96.103999999999999</v>
+      </c>
+      <c r="J44">
+        <v>2027.2090000000001</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1991.933</v>
+      </c>
+      <c r="O44">
+        <v>4292.05</v>
+      </c>
+      <c r="P44">
+        <v>2075.1559999999999</v>
+      </c>
+      <c r="Q44">
+        <v>-683.38599999999997</v>
+      </c>
+      <c r="R44">
+        <v>41912</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1755.681</v>
+      </c>
+      <c r="U44">
+        <v>1358.3</v>
+      </c>
+      <c r="V44">
+        <v>-346.83499999999998</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-232.946</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-9.8119999999999994</v>
+      </c>
+      <c r="AA44">
+        <v>105.163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>-186.45599999999999</v>
+      </c>
+      <c r="D45">
+        <v>1571.855</v>
+      </c>
+      <c r="E45">
+        <v>419.30099999999999</v>
+      </c>
+      <c r="F45">
+        <v>444.25200000000001</v>
+      </c>
+      <c r="G45">
+        <v>2267.6909999999998</v>
+      </c>
+      <c r="H45">
+        <v>5968.3609999999999</v>
+      </c>
+      <c r="I45">
+        <v>74.150999999999996</v>
+      </c>
+      <c r="J45">
+        <v>1995.9570000000001</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>2010.739</v>
+      </c>
+      <c r="O45">
+        <v>4315.6589999999997</v>
+      </c>
+      <c r="P45">
+        <v>2043.4</v>
+      </c>
+      <c r="Q45">
+        <v>23.728999999999999</v>
+      </c>
+      <c r="R45">
+        <v>42004</v>
+      </c>
+      <c r="S45">
+        <v>7900</v>
+      </c>
+      <c r="T45">
+        <v>1652.702</v>
+      </c>
+      <c r="U45">
+        <v>1382.029</v>
+      </c>
+      <c r="V45">
+        <v>283.80200000000002</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-10.388999999999999</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-8.2759999999999998</v>
+      </c>
+      <c r="AA45">
+        <v>-186.45599999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>-58.279000000000003</v>
+      </c>
+      <c r="D46">
+        <v>1120.3119999999999</v>
+      </c>
+      <c r="E46">
+        <v>434.54300000000001</v>
+      </c>
+      <c r="F46">
+        <v>399.02300000000002</v>
+      </c>
+      <c r="G46">
+        <v>2653.1129999999998</v>
+      </c>
+      <c r="H46">
+        <v>6338.4009999999998</v>
+      </c>
+      <c r="I46">
+        <v>59.762</v>
+      </c>
+      <c r="J46">
+        <v>1968.771</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>-8.6820000000000004</v>
+      </c>
+      <c r="N46">
+        <v>2506.9810000000002</v>
+      </c>
+      <c r="O46">
+        <v>4783.0330000000004</v>
+      </c>
+      <c r="P46">
+        <v>2032.875</v>
+      </c>
+      <c r="Q46">
+        <v>224.62899999999999</v>
+      </c>
+      <c r="R46">
+        <v>42094</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>1555.3679999999999</v>
+      </c>
+      <c r="U46">
+        <v>1606.6579999999999</v>
+      </c>
+      <c r="V46">
+        <v>347.661</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-24.315000000000001</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-3.9129999999999998</v>
+      </c>
+      <c r="AA46">
+        <v>-58.279000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>15.055999999999999</v>
+      </c>
+      <c r="D47">
+        <v>1765.777</v>
+      </c>
+      <c r="E47">
+        <v>524.22699999999998</v>
+      </c>
+      <c r="F47">
+        <v>486.678</v>
+      </c>
+      <c r="G47">
+        <v>2752.748</v>
+      </c>
+      <c r="H47">
+        <v>6713.5159999999996</v>
+      </c>
+      <c r="I47">
+        <v>86.087000000000003</v>
+      </c>
+      <c r="J47">
+        <v>1973.173</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>2727.28</v>
+      </c>
+      <c r="O47">
+        <v>5023.4059999999999</v>
+      </c>
+      <c r="P47">
+        <v>2030.462</v>
+      </c>
+      <c r="Q47">
+        <v>-80.838999999999999</v>
+      </c>
+      <c r="R47">
+        <v>42185</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1690.11</v>
+      </c>
+      <c r="U47">
+        <v>1525.819</v>
+      </c>
+      <c r="V47">
+        <v>14.815</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-8.0470000000000006</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-7.11</v>
+      </c>
+      <c r="AA47">
+        <v>15.055999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>89.049000000000007</v>
+      </c>
+      <c r="D48">
+        <v>2622.9169999999999</v>
+      </c>
+      <c r="E48">
+        <v>631.34400000000005</v>
+      </c>
+      <c r="F48">
+        <v>648.59500000000003</v>
+      </c>
+      <c r="G48">
+        <v>2296.5949999999998</v>
+      </c>
+      <c r="H48">
+        <v>6265.3540000000003</v>
+      </c>
+      <c r="I48">
+        <v>88.215999999999994</v>
+      </c>
+      <c r="J48">
+        <v>1993.963</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>2131.7640000000001</v>
+      </c>
+      <c r="O48">
+        <v>4470.4570000000003</v>
+      </c>
+      <c r="P48">
+        <v>2036.0940000000001</v>
+      </c>
+      <c r="Q48">
+        <v>-464.43599999999998</v>
+      </c>
+      <c r="R48">
+        <v>42277</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>1794.8969999999999</v>
+      </c>
+      <c r="U48">
+        <v>1061.383</v>
+      </c>
+      <c r="V48">
+        <v>-377.4</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-1.0860000000000001</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-6.1070000000000002</v>
+      </c>
+      <c r="AA48">
+        <v>89.049000000000007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>-78.334000000000003</v>
+      </c>
+      <c r="D49">
+        <v>1736.7249999999999</v>
+      </c>
+      <c r="E49">
+        <v>452.6</v>
+      </c>
+      <c r="F49">
+        <v>514.96199999999999</v>
+      </c>
+      <c r="G49">
+        <v>2288.3150000000001</v>
+      </c>
+      <c r="H49">
+        <v>6156.241</v>
+      </c>
+      <c r="I49">
+        <v>58.606999999999999</v>
+      </c>
+      <c r="J49">
+        <v>2002.663</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>2101.2060000000001</v>
+      </c>
+      <c r="O49">
+        <v>4445.607</v>
+      </c>
+      <c r="P49">
+        <v>2045.0150000000001</v>
+      </c>
+      <c r="Q49">
+        <v>241.74199999999999</v>
+      </c>
+      <c r="R49">
+        <v>42369</v>
+      </c>
+      <c r="S49">
+        <v>7700</v>
+      </c>
+      <c r="T49">
+        <v>1710.634</v>
+      </c>
+      <c r="U49">
+        <v>1303.125</v>
+      </c>
+      <c r="V49">
+        <v>322.77800000000002</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-10.673</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-4.8680000000000003</v>
+      </c>
+      <c r="AA49">
+        <v>-78.334000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>-44.518000000000001</v>
+      </c>
+      <c r="D50">
+        <v>1207.7159999999999</v>
+      </c>
+      <c r="E50">
+        <v>480.68099999999998</v>
+      </c>
+      <c r="F50">
+        <v>423.51299999999998</v>
+      </c>
+      <c r="G50">
+        <v>2966.2539999999999</v>
+      </c>
+      <c r="H50">
+        <v>6927.174</v>
+      </c>
+      <c r="I50">
+        <v>76.203999999999994</v>
+      </c>
+      <c r="J50">
+        <v>1992.8510000000001</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>-9.7639999999999993</v>
+      </c>
+      <c r="N50">
+        <v>2926.2370000000001</v>
+      </c>
+      <c r="O50">
+        <v>5258.4279999999999</v>
+      </c>
+      <c r="P50">
+        <v>2036.8409999999999</v>
+      </c>
+      <c r="Q50">
+        <v>396.15600000000001</v>
+      </c>
+      <c r="R50">
+        <v>42460</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>1668.7460000000001</v>
+      </c>
+      <c r="U50">
+        <v>1699.2809999999999</v>
+      </c>
+      <c r="V50">
+        <v>517.39800000000002</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-53.289000000000001</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-5.165</v>
+      </c>
+      <c r="AA50">
+        <v>-44.518000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>37.741</v>
+      </c>
+      <c r="D51">
+        <v>2179.2579999999998</v>
+      </c>
+      <c r="E51">
+        <v>634.56200000000001</v>
+      </c>
+      <c r="F51">
+        <v>573.57000000000005</v>
+      </c>
+      <c r="G51">
+        <v>2969.9520000000002</v>
+      </c>
+      <c r="H51">
+        <v>7043.4260000000004</v>
+      </c>
+      <c r="I51">
+        <v>103.72199999999999</v>
+      </c>
+      <c r="J51">
+        <v>1985.19</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>3023.4340000000002</v>
+      </c>
+      <c r="O51">
+        <v>5335.1279999999997</v>
+      </c>
+      <c r="P51">
+        <v>2030.1079999999999</v>
+      </c>
+      <c r="Q51">
+        <v>-187.18199999999999</v>
+      </c>
+      <c r="R51">
+        <v>42551</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>1708.298</v>
+      </c>
+      <c r="U51">
+        <v>1512.0989999999999</v>
+      </c>
+      <c r="V51">
+        <v>-6.423</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-15.805</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-8.343</v>
+      </c>
+      <c r="AA51">
+        <v>37.741</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>111.07899999999999</v>
+      </c>
+      <c r="D52">
+        <v>3170.4160000000002</v>
+      </c>
+      <c r="E52">
+        <v>785.41800000000001</v>
+      </c>
+      <c r="F52">
+        <v>742.41300000000001</v>
+      </c>
+      <c r="G52">
+        <v>2407.2049999999999</v>
+      </c>
+      <c r="H52">
+        <v>6417.0290000000005</v>
+      </c>
+      <c r="I52">
+        <v>66.346999999999994</v>
+      </c>
+      <c r="J52">
+        <v>1984.511</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>2280.9969999999998</v>
+      </c>
+      <c r="O52">
+        <v>4589.2079999999996</v>
+      </c>
+      <c r="P52">
+        <v>2031.204</v>
+      </c>
+      <c r="Q52">
+        <v>-472.39299999999997</v>
+      </c>
+      <c r="R52">
+        <v>42643</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>1827.8209999999999</v>
+      </c>
+      <c r="U52">
+        <v>1039.7059999999999</v>
+      </c>
+      <c r="V52">
+        <v>-391.459</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-40.606000000000002</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-5.12</v>
+      </c>
+      <c r="AA52">
+        <v>111.07899999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>-101.36</v>
+      </c>
+      <c r="D53">
+        <v>1797.5440000000001</v>
+      </c>
+      <c r="E53">
+        <v>568.93600000000004</v>
+      </c>
+      <c r="F53">
+        <v>532.73</v>
+      </c>
+      <c r="G53">
+        <v>2673.5509999999999</v>
+      </c>
+      <c r="H53">
+        <v>6764.2659999999996</v>
+      </c>
+      <c r="I53">
+        <v>55.03</v>
+      </c>
+      <c r="J53">
+        <v>2259.7359999999999</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>2460.3440000000001</v>
+      </c>
+      <c r="O53">
+        <v>5067.6819999999998</v>
+      </c>
+      <c r="P53">
+        <v>2313.0529999999999</v>
+      </c>
+      <c r="Q53">
+        <v>486.88499999999999</v>
+      </c>
+      <c r="R53">
+        <v>42735</v>
+      </c>
+      <c r="S53">
+        <v>8300</v>
+      </c>
+      <c r="T53">
+        <v>1696.5840000000001</v>
+      </c>
+      <c r="U53">
+        <v>1526.5909999999999</v>
+      </c>
+      <c r="V53">
+        <v>477.97399999999999</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>208.91200000000001</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-10.294</v>
+      </c>
+      <c r="AA53">
+        <v>-101.36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>-32.993000000000002</v>
+      </c>
+      <c r="D54">
+        <v>1242.8789999999999</v>
+      </c>
+      <c r="E54">
+        <v>584.63800000000003</v>
+      </c>
+      <c r="F54">
+        <v>467.61799999999999</v>
+      </c>
+      <c r="G54">
+        <v>3601.4490000000001</v>
+      </c>
+      <c r="H54">
+        <v>7823.5169999999998</v>
+      </c>
+      <c r="I54">
+        <v>68.263000000000005</v>
+      </c>
+      <c r="J54">
+        <v>2258.8200000000002</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>-11.775</v>
+      </c>
+      <c r="N54">
+        <v>3539.3310000000001</v>
+      </c>
+      <c r="O54">
+        <v>6144.634</v>
+      </c>
+      <c r="P54">
+        <v>2318.7629999999999</v>
+      </c>
+      <c r="Q54">
+        <v>701.99900000000002</v>
+      </c>
+      <c r="R54">
+        <v>42825</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>1678.883</v>
+      </c>
+      <c r="U54">
+        <v>2227.5549999999998</v>
+      </c>
+      <c r="V54">
+        <v>761.73699999999997</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-5.0670000000000002</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-10.608000000000001</v>
+      </c>
+      <c r="AA54">
+        <v>-32.993000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>81.477999999999994</v>
+      </c>
+      <c r="D55">
+        <v>2683.585</v>
+      </c>
+      <c r="E55">
+        <v>865.10699999999997</v>
+      </c>
+      <c r="F55">
+        <v>661.11400000000003</v>
+      </c>
+      <c r="G55">
+        <v>3984.2779999999998</v>
+      </c>
+      <c r="H55">
+        <v>8251.4259999999995</v>
+      </c>
+      <c r="I55">
+        <v>123.94</v>
+      </c>
+      <c r="J55">
+        <v>2249.1570000000002</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>3836.6570000000002</v>
+      </c>
+      <c r="O55">
+        <v>6447.3720000000003</v>
+      </c>
+      <c r="P55">
+        <v>2315.587</v>
+      </c>
+      <c r="Q55">
+        <v>-10.708</v>
+      </c>
+      <c r="R55">
+        <v>42916</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>1804.0540000000001</v>
+      </c>
+      <c r="U55">
+        <v>2216.8119999999999</v>
+      </c>
+      <c r="V55">
+        <v>42.972000000000001</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-19.097999999999999</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-7.601</v>
+      </c>
+      <c r="AA55">
+        <v>81.477999999999994</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>136.393</v>
+      </c>
+      <c r="D56">
+        <v>3440.308</v>
+      </c>
+      <c r="E56">
+        <v>991.21500000000003</v>
+      </c>
+      <c r="F56">
+        <v>806.36800000000005</v>
+      </c>
+      <c r="G56">
+        <v>3563.6289999999999</v>
+      </c>
+      <c r="H56">
+        <v>7810.5240000000003</v>
+      </c>
+      <c r="I56">
+        <v>93.043000000000006</v>
+      </c>
+      <c r="J56">
+        <v>2240.4609999999998</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>3212.877</v>
+      </c>
+      <c r="O56">
+        <v>5825.7049999999999</v>
+      </c>
+      <c r="P56">
+        <v>2312.1350000000002</v>
+      </c>
+      <c r="Q56">
+        <v>-415.89699999999999</v>
+      </c>
+      <c r="R56">
+        <v>43008</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>1984.819</v>
+      </c>
+      <c r="U56">
+        <v>1801.0129999999999</v>
+      </c>
+      <c r="V56">
+        <v>-386.47500000000002</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-1.498</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-3.948</v>
+      </c>
+      <c r="AA56">
+        <v>136.393</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>-190.893</v>
+      </c>
+      <c r="D57">
+        <v>2320.4499999999998</v>
+      </c>
+      <c r="E57">
+        <v>725.30399999999997</v>
+      </c>
+      <c r="F57">
+        <v>570.22400000000005</v>
+      </c>
+      <c r="G57">
+        <v>3152.7420000000002</v>
+      </c>
+      <c r="H57">
+        <v>7504.2629999999999</v>
+      </c>
+      <c r="I57">
+        <v>85.665999999999997</v>
+      </c>
+      <c r="J57">
+        <v>1952.366</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>3577</v>
+      </c>
+      <c r="O57">
+        <v>5841.3919999999998</v>
+      </c>
+      <c r="P57">
+        <v>2299.9589999999998</v>
+      </c>
+      <c r="Q57">
+        <v>23.853000000000002</v>
+      </c>
+      <c r="R57">
+        <v>43100</v>
+      </c>
+      <c r="S57">
+        <v>8800</v>
+      </c>
+      <c r="T57">
+        <v>1662.8710000000001</v>
+      </c>
+      <c r="U57">
+        <v>1825.3219999999999</v>
+      </c>
+      <c r="V57">
+        <v>205.28800000000001</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-101.42</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-3.0129999999999999</v>
+      </c>
+      <c r="AA57">
+        <v>-190.893</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>-33.905999999999999</v>
+      </c>
+      <c r="D58">
+        <v>1482.384</v>
+      </c>
+      <c r="E58">
+        <v>783.80700000000002</v>
+      </c>
+      <c r="F58">
+        <v>550.29999999999995</v>
+      </c>
+      <c r="G58">
+        <v>4644.6899999999996</v>
+      </c>
+      <c r="H58">
+        <v>9117.5480000000007</v>
+      </c>
+      <c r="I58">
+        <v>79.411000000000001</v>
+      </c>
+      <c r="J58">
+        <v>2747.3989999999999</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>-321.85000000000002</v>
+      </c>
+      <c r="N58">
+        <v>4438.7129999999997</v>
+      </c>
+      <c r="O58">
+        <v>7480.6270000000004</v>
+      </c>
+      <c r="P58">
+        <v>2866.8130000000001</v>
+      </c>
+      <c r="Q58">
+        <v>1119.961</v>
+      </c>
+      <c r="R58">
+        <v>43190</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>1636.921</v>
+      </c>
+      <c r="U58">
+        <v>2942.4070000000002</v>
+      </c>
+      <c r="V58">
+        <v>775.49800000000005</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>404.15</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>-33.905999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>69.358999999999995</v>
+      </c>
+      <c r="D59">
+        <v>2868.3150000000001</v>
+      </c>
+      <c r="E59">
+        <v>949.42200000000003</v>
+      </c>
+      <c r="F59">
+        <v>733.20799999999997</v>
+      </c>
+      <c r="G59">
+        <v>4263.3559999999998</v>
+      </c>
+      <c r="H59">
+        <v>8952.8089999999993</v>
+      </c>
+      <c r="I59">
+        <v>134.19499999999999</v>
+      </c>
+      <c r="J59">
+        <v>2743.1039999999998</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>4206.7510000000002</v>
+      </c>
+      <c r="O59">
+        <v>7254.0950000000003</v>
+      </c>
+      <c r="P59">
+        <v>2828.05</v>
+      </c>
+      <c r="Q59">
+        <v>-648.47</v>
+      </c>
+      <c r="R59">
+        <v>43281</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>1698.7139999999999</v>
+      </c>
+      <c r="U59">
+        <v>2293.2640000000001</v>
+      </c>
+      <c r="V59">
+        <v>-255.672</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>-89.418999999999997</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-38.201000000000001</v>
+      </c>
+      <c r="AA59">
+        <v>69.358999999999995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>172.68299999999999</v>
+      </c>
+      <c r="D60">
+        <v>3835.2460000000001</v>
+      </c>
+      <c r="E60">
+        <v>1252.585</v>
+      </c>
+      <c r="F60">
+        <v>910.89</v>
+      </c>
+      <c r="G60">
+        <v>3881.047</v>
+      </c>
+      <c r="H60">
+        <v>8511.6990000000005</v>
+      </c>
+      <c r="I60">
+        <v>112.036</v>
+      </c>
+      <c r="J60">
+        <v>2731.9850000000001</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>3608.7979999999998</v>
+      </c>
+      <c r="O60">
+        <v>6652.32</v>
+      </c>
+      <c r="P60">
+        <v>2813.817</v>
+      </c>
+      <c r="Q60">
+        <v>-390.51499999999999</v>
+      </c>
+      <c r="R60">
+        <v>43373</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>1859.3789999999999</v>
+      </c>
+      <c r="U60">
+        <v>1900.3050000000001</v>
+      </c>
+      <c r="V60">
+        <v>-264.25</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>-46.604999999999997</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-4.3789999999999996</v>
+      </c>
+      <c r="AA60">
+        <v>172.68299999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>-147.887</v>
+      </c>
+      <c r="D61">
+        <v>2601.855</v>
+      </c>
+      <c r="E61">
+        <v>829.32</v>
+      </c>
+      <c r="F61">
+        <v>625.47</v>
+      </c>
+      <c r="G61">
+        <v>3848.0740000000001</v>
+      </c>
+      <c r="H61">
+        <v>8496.8860000000004</v>
+      </c>
+      <c r="I61">
+        <v>90.253</v>
+      </c>
+      <c r="J61">
+        <v>2732.8780000000002</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>3749.866</v>
+      </c>
+      <c r="O61">
+        <v>6824.7879999999996</v>
+      </c>
+      <c r="P61">
+        <v>2815.02</v>
+      </c>
+      <c r="Q61">
+        <v>468.40499999999997</v>
+      </c>
+      <c r="R61">
+        <v>43465</v>
+      </c>
+      <c r="S61">
+        <v>9500</v>
+      </c>
+      <c r="T61">
+        <v>1672.098</v>
+      </c>
+      <c r="U61">
+        <v>2371.54</v>
+      </c>
+      <c r="V61">
+        <v>686.01</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-79.341999999999999</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-3.9169999999999998</v>
+      </c>
+      <c r="AA61">
+        <v>-147.887</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>-52.444000000000003</v>
+      </c>
+      <c r="D62">
+        <v>1727.828</v>
+      </c>
+      <c r="E62">
+        <v>920.03499999999997</v>
+      </c>
+      <c r="F62">
+        <v>576.22400000000005</v>
+      </c>
+      <c r="G62">
+        <v>4424.8739999999998</v>
+      </c>
+      <c r="H62">
+        <v>10302.532999999999</v>
+      </c>
+      <c r="I62">
+        <v>103.56699999999999</v>
+      </c>
+      <c r="J62">
+        <v>2715.9659999999999</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>-13.573</v>
+      </c>
+      <c r="N62">
+        <v>4688.8819999999996</v>
+      </c>
+      <c r="O62">
+        <v>8719.11</v>
+      </c>
+      <c r="P62">
+        <v>3981.0590000000002</v>
+      </c>
+      <c r="Q62">
+        <v>305.98899999999998</v>
+      </c>
+      <c r="R62">
+        <v>43555</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>1583.423</v>
+      </c>
+      <c r="U62">
+        <v>2670.538</v>
+      </c>
+      <c r="V62">
+        <v>469.05</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-71.491</v>
+      </c>
+      <c r="Y62">
+        <v>1071.375</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>-52.444000000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>103.355</v>
+      </c>
+      <c r="D63">
+        <v>3157.009</v>
+      </c>
+      <c r="E63">
+        <v>1096.7539999999999</v>
+      </c>
+      <c r="F63">
+        <v>829.59500000000003</v>
+      </c>
+      <c r="G63">
+        <v>4284.8869999999997</v>
+      </c>
+      <c r="H63">
+        <v>10529.387000000001</v>
+      </c>
+      <c r="I63">
+        <v>170.274</v>
+      </c>
+      <c r="J63">
+        <v>2708.6419999999998</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>4605.723</v>
+      </c>
+      <c r="O63">
+        <v>8736.3029999999999</v>
+      </c>
+      <c r="P63">
+        <v>4023.009</v>
+      </c>
+      <c r="Q63">
+        <v>-399.21300000000002</v>
+      </c>
+      <c r="R63">
+        <v>43646</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>1793.0840000000001</v>
+      </c>
+      <c r="U63">
+        <v>2270.3409999999999</v>
+      </c>
+      <c r="V63">
+        <v>-175.727</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-26.419</v>
+      </c>
+      <c r="Y63">
+        <v>1138.893</v>
+      </c>
+      <c r="Z63">
+        <v>-28.931000000000001</v>
+      </c>
+      <c r="AA63">
+        <v>103.355</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>178.92500000000001</v>
+      </c>
+      <c r="D64">
+        <v>3773.6840000000002</v>
+      </c>
+      <c r="E64">
+        <v>1215.4649999999999</v>
+      </c>
+      <c r="F64">
+        <v>973.255</v>
+      </c>
+      <c r="G64">
+        <v>3849.723</v>
+      </c>
+      <c r="H64">
+        <v>9967.1329999999998</v>
+      </c>
+      <c r="I64">
+        <v>119.91</v>
+      </c>
+      <c r="J64">
+        <v>2694.9340000000002</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>3959.3719999999998</v>
+      </c>
+      <c r="O64">
+        <v>8025.4849999999997</v>
+      </c>
+      <c r="P64">
+        <v>3974.0450000000001</v>
+      </c>
+      <c r="Q64">
+        <v>-476.185</v>
+      </c>
+      <c r="R64">
+        <v>43738</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>1941.6479999999999</v>
+      </c>
+      <c r="U64">
+        <v>1795.1659999999999</v>
+      </c>
+      <c r="V64">
+        <v>-260.40100000000001</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-41.7</v>
+      </c>
+      <c r="Y64">
+        <v>1092.538</v>
+      </c>
+      <c r="Z64">
+        <v>-5.8109999999999999</v>
+      </c>
+      <c r="AA64">
+        <v>178.92500000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>-159.947</v>
+      </c>
+      <c r="D65">
+        <v>2889.4479999999999</v>
+      </c>
+      <c r="E65">
+        <v>994.60599999999999</v>
+      </c>
+      <c r="F65">
+        <v>701.71299999999997</v>
+      </c>
+      <c r="G65">
+        <v>4192.8990000000003</v>
+      </c>
+      <c r="H65">
+        <v>10975.615</v>
+      </c>
+      <c r="I65">
+        <v>100.23699999999999</v>
+      </c>
+      <c r="J65">
+        <v>3271.2620000000002</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>4107.5990000000002</v>
+      </c>
+      <c r="O65">
+        <v>9062.1630000000005</v>
+      </c>
+      <c r="P65">
+        <v>4805.4880000000003</v>
+      </c>
+      <c r="Q65">
+        <v>665.44799999999998</v>
+      </c>
+      <c r="R65">
+        <v>43830</v>
+      </c>
+      <c r="S65">
+        <v>10500</v>
+      </c>
+      <c r="T65">
+        <v>1913.452</v>
+      </c>
+      <c r="U65">
+        <v>2470.3620000000001</v>
+      </c>
+      <c r="V65">
+        <v>436.86099999999999</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>468.49900000000002</v>
+      </c>
+      <c r="Y65">
+        <v>1374.481</v>
+      </c>
+      <c r="Z65">
+        <v>-21.082999999999998</v>
+      </c>
+      <c r="AA65">
+        <v>-159.947</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>-184.78399999999999</v>
+      </c>
+      <c r="D66">
+        <v>1365.693</v>
+      </c>
+      <c r="E66">
+        <v>759.43200000000002</v>
+      </c>
+      <c r="F66">
+        <v>491.87299999999999</v>
+      </c>
+      <c r="G66">
+        <v>4851.0249999999996</v>
+      </c>
+      <c r="H66">
+        <v>11861.444</v>
+      </c>
+      <c r="I66">
+        <v>87.84</v>
+      </c>
+      <c r="J66">
+        <v>3681.85</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>-6.032</v>
+      </c>
+      <c r="N66">
+        <v>4730.0559999999996</v>
+      </c>
+      <c r="O66">
+        <v>10187.005999999999</v>
+      </c>
+      <c r="P66">
+        <v>5220.0609999999997</v>
+      </c>
+      <c r="Q66">
+        <v>807.46900000000005</v>
+      </c>
+      <c r="R66">
+        <v>43921</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>1674.4380000000001</v>
+      </c>
+      <c r="U66">
+        <v>3269.8629999999998</v>
+      </c>
+      <c r="V66">
+        <v>631.67499999999995</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>382.42200000000003</v>
+      </c>
+      <c r="Y66">
+        <v>1380.192</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>-184.78399999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>-567.51700000000005</v>
+      </c>
+      <c r="D67">
+        <v>74.084000000000003</v>
+      </c>
+      <c r="E67">
+        <v>618.58000000000004</v>
+      </c>
+      <c r="F67">
+        <v>-120.473</v>
+      </c>
+      <c r="G67">
+        <v>4433.1940000000004</v>
+      </c>
+      <c r="H67">
+        <v>11622.3</v>
+      </c>
+      <c r="I67">
+        <v>124.806</v>
+      </c>
+      <c r="J67">
+        <v>4866.3310000000001</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>3492.2959999999998</v>
+      </c>
+      <c r="O67">
+        <v>10604.541999999999</v>
+      </c>
+      <c r="P67">
+        <v>6461.8789999999999</v>
+      </c>
+      <c r="Q67">
+        <v>18.654</v>
+      </c>
+      <c r="R67">
+        <v>44012</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>1017.758</v>
+      </c>
+      <c r="U67">
+        <v>3290.0520000000001</v>
+      </c>
+      <c r="V67">
+        <v>-1022.035</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>1079.6759999999999</v>
+      </c>
+      <c r="Y67">
+        <v>1412.19</v>
+      </c>
+      <c r="Z67">
+        <v>-8.15</v>
+      </c>
+      <c r="AA67">
+        <v>-567.51700000000005</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>-528.90200000000004</v>
+      </c>
+      <c r="D68">
+        <v>184.018</v>
+      </c>
+      <c r="E68">
+        <v>564.87300000000005</v>
+      </c>
+      <c r="F68">
+        <v>53.268999999999998</v>
+      </c>
+      <c r="G68">
+        <v>3859.857</v>
+      </c>
+      <c r="H68">
+        <v>10885.431</v>
+      </c>
+      <c r="I68">
+        <v>88.869</v>
+      </c>
+      <c r="J68">
+        <v>4884.9120000000003</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>3582.877</v>
+      </c>
+      <c r="O68">
+        <v>10351.42</v>
+      </c>
+      <c r="P68">
+        <v>6518.5420000000004</v>
+      </c>
+      <c r="Q68">
+        <v>-666.87400000000002</v>
+      </c>
+      <c r="R68">
+        <v>44104</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>534.01099999999997</v>
+      </c>
+      <c r="U68">
+        <v>2625.0819999999999</v>
+      </c>
+      <c r="V68">
+        <v>-566.54300000000001</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-100.462</v>
+      </c>
+      <c r="Y68">
+        <v>1467.105</v>
+      </c>
+      <c r="Z68">
+        <v>-1.5780000000000001</v>
+      </c>
+      <c r="AA68">
+        <v>-528.90200000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
         <v>-443.33199999999999</v>
       </c>
-      <c r="D42">
+      <c r="D69">
         <v>237.38300000000001</v>
       </c>
-      <c r="E42">
+      <c r="E69">
         <v>486.73399999999998</v>
       </c>
-      <c r="F42">
+      <c r="F69">
         <v>34.109000000000002</v>
       </c>
-      <c r="G42">
+      <c r="G69">
         <v>3649.768</v>
       </c>
-      <c r="H42">
+      <c r="H69">
         <v>10589.303</v>
       </c>
-      <c r="I42">
+      <c r="I69">
         <v>86.355999999999995</v>
       </c>
-      <c r="J42">
-        <v>4855.0959999999995</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="J69">
+        <v>4850.8959999999997</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
         <v>3796.569</v>
       </c>
-      <c r="O42">
+      <c r="O69">
         <v>10450.606</v>
       </c>
-      <c r="P42">
+      <c r="P69">
         <v>6461.3320000000003</v>
       </c>
-      <c r="Q42">
+      <c r="Q69">
         <v>-87.052000000000007</v>
       </c>
-      <c r="R42">
+      <c r="R69">
         <v>44196</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S69">
+        <v>8200</v>
+      </c>
+      <c r="T69">
         <v>138.697</v>
       </c>
-      <c r="U42">
+      <c r="U69">
         <v>2537.7869999999998</v>
       </c>
-      <c r="V42">
-        <v>-125.735</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>-12.304</v>
-      </c>
-      <c r="Y42">
-        <v>1445.674</v>
-      </c>
-      <c r="Z42">
+      <c r="V69">
+        <v>-126.485</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>-11.554</v>
+      </c>
+      <c r="Y69">
+        <v>1449.874</v>
+      </c>
+      <c r="Z69">
         <v>17.489000000000001</v>
       </c>
-      <c r="AA42">
+      <c r="AA69">
         <v>-443.33199999999999</v>
       </c>
     </row>
